--- a/500all/speech_level/speeches_CHRG-114hhrg20074.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20074.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
   <si>
     <t>committee_name</t>
   </si>
@@ -50,9 +50,6 @@
   </si>
   <si>
     <t>400071</t>
-  </si>
-  <si>
-    <t>Steve Chabot</t>
   </si>
 </sst>
 </file>
@@ -451,9 +448,7 @@
       <c r="F2" t="s">
         <v>11</v>
       </c>
-      <c r="G2" t="s">
-        <v>12</v>
-      </c>
+      <c r="G2" t="s"/>
       <c r="H2" t="s"/>
     </row>
   </sheetData>

--- a/500all/speech_level/speeches_CHRG-114hhrg20074.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20074.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="12">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,7 +31,10 @@
     <t>govtrack</t>
   </si>
   <si>
-    <t>speaker</t>
+    <t>speaker_last</t>
+  </si>
+  <si>
+    <t>speaker_first</t>
   </si>
   <si>
     <t>speech</t>
@@ -50,6 +53,12 @@
   </si>
   <si>
     <t>400071</t>
+  </si>
+  <si>
+    <t>Chabot</t>
+  </si>
+  <si>
+    <t>Steve</t>
   </si>
 </sst>
 </file>
@@ -398,7 +407,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -406,7 +415,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:8">
+    <row r="1" spans="1:9">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -428,28 +437,36 @@
       <c r="H1" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="I1" s="1" t="s">
+        <v>7</v>
+      </c>
     </row>
-    <row r="2" spans="1:8">
+    <row r="2" spans="1:9">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="D2" t="s">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
-      <c r="G2" t="s"/>
-      <c r="H2" t="s"/>
+        <v>12</v>
+      </c>
+      <c r="G2" t="s">
+        <v>13</v>
+      </c>
+      <c r="H2" t="s">
+        <v>14</v>
+      </c>
+      <c r="I2" t="s"/>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>

--- a/500all/speech_level/speeches_CHRG-114hhrg20074.xlsx
+++ b/500all/speech_level/speeches_CHRG-114hhrg20074.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="15">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="199">
   <si>
     <t>committee_name</t>
   </si>
@@ -31,6 +31,9 @@
     <t>govtrack</t>
   </si>
   <si>
+    <t>ranking</t>
+  </si>
+  <si>
     <t>speaker_last</t>
   </si>
   <si>
@@ -55,10 +58,559 @@
     <t>400071</t>
   </si>
   <si>
+    <t>Chair</t>
+  </si>
+  <si>
     <t>Chabot</t>
   </si>
   <si>
     <t>Steve</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Good morning. The Committee will come to order. I want to thank all the witnesses for being here and we will get to you very shortly.    Last week, our country recognized National Small Business Week, a time when small businesses and entrepreneurs are celebrated for the tremendous impact they have on every community all across America. Setting aside a week to highlight the importance of small businesses services is a reminder as to how crucial they are to our national prosperity and economic security. Here at the Small Business Committee we are reminded of this every day.    It is often said that when small businesses succeed, America succeeds. At the very heart of small businesses, what allows them to succeed, are the people, the men and women of this country who set out with an idea and the desire to turn that idea into a reality. It is this enduring spirit of American innovation that continues to breathe life into our economy and create the jobs no government program can.    Today, the Committee is excited to have before it what is truly an expert panel. Our witnesses today are prominent and passionate voices in the small business community all across America. Each of our witnesses have taken the lessons learned from building their own businesses and provide guidance to small business owners and aspiring entrepreneurs. The difference between a good idea and a good business is execution, and who do America's small businesses turn to for help developing and executing a business plan? They turn to J.J. Ramberg, to Ramon Ray, to Susan Solovic.</t>
+  </si>
+  <si>
+    <t>N/A</t>
+  </si>
+  <si>
+    <t>SOLOVIC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. Solovic.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. I apologize. They pronounce it correctly and they turn to her, and to Melinda Emerson, and today, so do we.    Through their work, our witnesses have helped to inspire and shape countless small businesses all across America. They have their fingers on the small business pulse and can offer unique perspectives as to the challenges small business owners face every day. This Committee is eager to hear more about the great work our witnesses are doing to help small businesses and grow the conversation of small business success stories.    I would like to thank all of the witnesses for coming here today. We will stop talking soon and turn to you all, and we will listen, but at this point I would like to yield to our ranking member, Ms. Velazquez, for her opening remarks.</t>
+  </si>
+  <si>
+    <t>VELAZQUEZ</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Thank you, Mr. Chairman.    Our nation's culture, character, and economy have always been defined by entrepreneurship. Today, 28 million small firms drive growth and create opportunity in major cities, rural areas, and every community in between. Small businesses employ over half of all private sector employees. Their hard work, innovation, and ingenuity to create new products and open new markets contributes to all economic sectors.    However, forming a new business is an inherently risky undertaking, and there are many obstacles entrepreneurs face when getting started. From accessing capital to navigating an uncertain tax code, to managing operations, to understanding their regulatory landscape, it is not as simple as it once was to start a small business. As a result, we have seen the face of small businesses change. Small businesses have always been dynamic, but in today's world, that rate of change is accelerating. Many entrepreneurs no longer choose the traditional brick-and-mortar business model. Instead, they opt for sole proprietorship and online models that provide greater flexibility. These structures allow many entrepreneurs to launch a new venture while avoiding risks, like sales revenue or cash flow, that are primary concerns for more traditional firms.    We have also seen the face of entrepreneurship evolve to more accurately reflect our nation's diversity. The rate of minority- and women-owned small business growth continues outpacing other business growth. Released last year, the 2012 Survey of Business Owners found that the percentage of minority-owned firms increased from 22 percent to 29 percent over a 5-year period. Meanwhile, the number of other businesses declined by 1.1 million. Women-owned firms also experienced higher growth rates than their male counterparts as their market share increased by more than 2 million firms.    These are positive trends, but minority- and women-owned firms continue facing barriers to formation and growth. They find it harder to secure financing and often face unfair treatment in the marketplace from potential customers and vendors.    If the economy is to benefit from the high rates of business formation and the job creation that follows, more must be done to ensure hurdles like these are removed. One role for this committee is ensuring these firms can access resources to overcome those barriers and expand opportunities for all Americans.    In more than two decades on this committee, I have seen firsthand the ingenuity and resilience of small business owners, not only in my district, but across the nation. These firms can accomplish great things if they have the right tools.    During today's hearings, some of the country's leading small business experts and advocates can provide us with useful guidance on how to better accomplish that goal. In that regard, I want to thank all the witnesses who traveled here today for their participation and valuable perspective.    Thank you again, Mr. Chairman, and I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much. The gentlelady yields back.    Now, before I introduce the panel, no more speeches, but I would like to just kind of inform you all about our lighting system. You all have probably been informed that you have 5 minutes each to testify. The lights there will help you to stay within that if at all possible. The green light will be on for 4 minutes. The yellow light comes on to let you know you have about a minute to wrap up, and the red light comes on and we ask that you try to stay within that if at all possible. We will give you a little flexibility, but not a whole lot, so try to stay within it. I do have a gavel up here.    We would now like to introduce our very distinguished panel. We are pleased, as I said, to have a really fantastic group of folks here. First, we have Ms. J.J. Ramberg. Ms. Ramberg is the host of Your Business, a program on MSNBC that is dedicated to issues affecting small business owners, as well as the author of the best-selling book, It Is Your Business. She is also an entrepreneur herself, cofounding Goodshop, an online platform that has forged a connection between retail savings and nonprofit and school fund-raising. We welcome you here this morning.    Our second witness will be Ramon Ray. Mr. Ray is an entrepreneur, keynote speaker, author, journalist, and publisher of Smart Hustle Magazine. This magazine is dedicated to telling the journey of entrepreneurs and small businesses. Mr. Ray's specialty is in working with small businesses to help them grow by better utilizing technology and marketing. Mr. Ray has traveled the Nation speaking at and hosting events designed to help small business owners and entrepreneurs grow their business.    Our third witness today is Ms. Susan Solovic. Ms. Solovic is an entrepreneur, best-selling author, media personality, speaker, and she is known as ``the'' small business expert. No offense to the other witnesses here today. Ms. Solovic has served on the National Women's Business Council, and is a past board member of the Women's Leadership Board at Harvard University, the Women Presidents Organization, Women Impacting Public Policy, and the Institute for Economic Development of Women. We welcome you here this morning as well.    I would now like to yield to the Ranking Member for the introduction of our fourth and final witness here today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Thank you, Mr. Chairman. It is my pleasure to introduce Ms. Melinda Emerson. Ms. Emerson, also known as the SmallBizLady, is the leading expert in all things small business. She is the creator and host of Small Biz Chat, the longest-running live chat on Twitter for small business owners, which reaches more than 3 million entrepreneurs each week. She was named by Forbes magazine as the number one woman for entrepreneurs to follow on Twitter. In addition to being a regular columnist for the New York Times, Ms. Emerson is the founder and president of the Quintessence Group, an award-winning marketing consulting firm based in Philadelphia, Pennsylvania, as well as the founder of the Melinda Emerson Foundation, which provides mentoring and business training for minority and women entrepreneurs. Welcome. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much. We are done talking, so we will now start our panel. Ms. Ramberg, you are recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>RAMBERG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. RAMBERG. Thank you. Good morning, everyone. Thank you so much, Chairman Chabot and Ranking Member Velazquez, and everyone, for inviting me to testify today. It is a true honor and I really appreciate having the time to speak with you all.    For the last 10 years, I have had a really unique vantage point when it comes to small business and entrepreneurship, because during this time I both founded and have grown my own company called Goodshop, and I have been the host of Your Business on MSNBC. Through that I have been able to interview thousands of small business owners and investors and experts to really understand best practices when it comes to small growth survival and expansion. We were around in 2008, so we did a lot of stories on survival in those days.    This show was originally supposed to be on air for just 6 months, but we quickly learned that there was such a strong appetite by small business owners for advice and inspiration, and I think most importantly, just a sense that they are not alone on this journey. Now we are the longest-running show on MSNBC. We have been on for 10 years.    Entrepreneurship is in my blood. I am a third generation entrepreneur on both sides of my family. My paternal grandfather moved here from Mexico, and his first job here was as a peddler selling pots and pans and blankets door to door. He then went on to open a furniture store which my dad took over, and then my dad opened a storage business, a document storage business, and a real estate development firm.    On my mother's side, my grandfather was sort of a typical entrepreneur, always starting companies from a tropical fish company to he was the first person to bring frozen pizza to California, and he had a tire distribution company. My mom got the bug. When she was in her late forties, she partnered with my brother to start a company called JOBTRAK, a very bootstrapped company. I spent many of my summer hours making cold calls for that company when they first launched, and 12 years after they launched they sold that company to Monster.com.    I had a really special place by the time I started my company in 2005, because I had a front row seat to watching things go from idea to a business multiple times. As I look at my own experience, and I have talked to so many small business owners around the country, I know that having that experience and having a group of people around me who are advisors, who I can ask questions of very informally, really provides a shortcut to small business growth. It can be the difference between failure and success.    I do believe nothing really prepares you, even though I witnessed all these businesses, for doing it yourself. I certainly went in with my eyes open and I had a good group of people around me. My company Goodshop, which I founded with my brother Ken, was conceived upon a foundation of socially responsible business. We wanted to do good and do well. We have partnered with more than 30,000 retailers, and we provide the best coupons and deals for those retailers. If a user selects their favorite nonprofit or school, a percentage of what they spend goes back to that cause. Now we have saved people about $100 million in savings when they are shopping, and we have donated more than $12 million to organizations, large and small, across the country.    We now have about 60 employees and we continue to grow. We have a number of jobs that are still open right now that we are trying to fill. The company started just like many other bootstrapped businesses, with me working in my one-bedroom apartment in New York City, 24 hours a day, basically making calls in my pajamas, and my brother working at home at his place in Los Angeles, and just working hard. It took a lot of work to get to where we are today.    A few months after we launched Goodshop, I had the honor of being called by MSNBC and being brought on to launch the program, Your Business. On this show, once a week, we tackled common small business issues through profiling small businesses. These are issues that we hear consistently across the country regardless of industry and regardless of geography.    To give you some examples, we profiled a beauty salon in New Jersey, which was having trouble navigating the layers of regulations, local regulations, that kept them away from focusing on their growth. We told the story of a company that turns your T-shirts into blankets, and they could not find funding, despite very initial success that they had. We interviewed a woman whose clothing business was having trouble until she met an advisor from the SCORE organization. Simply having his perspective changed everything and her company started growing. Finally, we have done a series of stories on Main Streets across America, from Brundidge, Alabama, to Natchez, Mississippi, and I have seen the change that government grants can make--how money given to pave streets, help with signs outside of stores, get streetlights, flowers--can transform a Main Street and transform a city. Finding champions in those areas who are able to find those grants and get the businesses to work together can transform everything.    Now, I believe we are at a very exciting time for small business and entrepreneurship. I have with me, as I said, true champions who have worked with small businesses to help them grow and transform the economy of different cities around the world. Technology companies, particularly in the FinTech world and the EdTech world are just beginning to address these issues of small business funding and getting an educated workforce. I am excited to see what happens as these companies and these industries grow.    Now, there is no doubt, as we all at this table know, that owning a small business and entrepreneurship is no cakewalk. It can be hard. There are many people who struggle, and even for those who are very successful, there are a lot of pain points along the way, which is why I really want to thank you again for taking the time to talk about small business success stories. Because the more attention we can pay, the more focus we can put on both the challenges on small businesses and the success of small business and the contributions of small business owners, the more we can support this very incredibly important part of our economy. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much. We appreciate it.    Mr. Ray, you are recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>RAY</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. Thank you very much. I would also like to acknowledge my wife of 22 years, who is there, and my daughter. I am sorry. Thank you. I would like to acknowledge my wife of 22 years and my daughter Charity, who is over there to my left as well. It is good to be amongst friends and experts who I have learned from over the years.    Chairman Chabot, Ranking Member Velazquez, thank you for inviting me to represent America's small business owners and entrepreneurs at this Committee hearing.    I would also like to extend a great warm greeting to the representatives from New Jersey, where I live near Newark Airport, and those from New York, where I grew up in Brooklyn. It is nice to see you all here as well.    Starting and growing a business, as we have talked, as you all know----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. You are making a lot of friends.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. Oh, great. Starting and growing a business is fraught with challenges as many of us know. I have started four businesses, and I have been blessed to be able to sell one of them and am on the way to selling the second one. I am an entrepreneur who is currently growing two companies, and one of those companies is Smart Hustle Magazine.    The day-to-day challenges of business ownership includes, of course, hiring the right staff, obtaining financing, trying to get new customers, and maybe keeping the ones we have. Also, of course, navigating government regulations and so much more.    Business ownership, it is not, of course, just about the challenges, but as many of us here on this panel know, it also comes with the sweet taste of independence, the freedom to chart our own course, the privilege of helping others with our income and, earning profitable rewards from the risks that so many small business owners and entrepreneurs take day to day. I think the greatest reward is the awesome responsibility of providing for our families and supporting our communities, which I know all of us here do.    Chairman Chabot and fellow Committee members, more important I think than any of us in this room, of course, are the thousands and thousands of small business owners who I am privileged to speak to across the country on a yearly basis, and the millions of small business owners that I am able to touch through events, through conferences, being on J.J.'s show, Twitter chats, et cetera.    Based on the input from this community--and I did ask, what should I tell the Committee?--there are three recommendations that they would like me to express to you today. Many of them you have heard, but I hope this helps to underline them.    I think first is definitely a continued reduction of burdensome, and I would say unnecessary, regulation at the Federal level, but let's also try to work and help at the local and State level as well. We need regulation, absolutely, for our safety. Please make sure the plane I am flying on tomorrow is safe. But, we do not need burdensome or unnecessary regulation. I think as an example that we have seen, in my opinion, the treatment of Uber. It is now a very big company, but I think that aspect at a very local level of stifling innovation and limiting growth is an example of what I think small businesses do not need.    Second, I would say the reduction and simplification of taxes. I count it as a privilege that I can pay taxes which, from my hard-earned income, helped to fund our awesome government. However, I would dare say, is there a limit to what taxes and tax laws are fair versus which ones are excessive and burdensome? Every year I pay thousands of dollars. Now, not as much as J.J. and Melinda and Susan pay, because they have a lot more money, but every year I pay thousands and thousands of dollars in taxes, and I would rather reduce the taxes I pay and instead use those funds to grow my business and invest in my community.    Thus, as we said, investing in America.    The third thing that my community has said, please tell the House of Representatives, please tell the congressmen and women, to foster small business education. I applaud the great work of the Small Business Administration, of SCORE, that I benefitted from many years ago; 26 Federal Plaza, that is where I went to. SBDCs and other government-supported organizations, they support and educate small business owners. I think the more we can invest in the education of business owners, the more we ensure that less businesses will fail and more will succeed. In particular, I applaud the great work of the New York City Department of Small Business Services. It happened to be in my backyard, but a great model I think that many local governments can follow.    Private and for-profit education efforts, such as the Goldman Sachs 10,000, Google's Get Your Business Online, Microsoft's Small Business Academy, Kaufman Foundation, and many more, these are examples of not government organizations, but still in the whole sphere of educating small business owners.    I was recently speaking with Robert Herjavec of Shark Tank and we discussed how all businesses hustle. They all work hard. They grind. We all work hard. However, it is those who are educated--and I think education is so important--who have smart hustle, who succeed. Educating business owners is essential.    As I conclude my statement, I think of a company like Infusionsoft, which was started by three friends in a strip mall, or a company like SumoMe, started by someone who was fired by Facebook. They are in Austin, Texas. These companies, my company, and millions of other small businesses, they need to be encouraged to start, grow, and thrive.    Let's think about the husband and wife who have just started their business today, what can we do to help them? Or a high school graduate who is now working on an invention right now to put me out of business, unfortunately. Or the laid-off 50-year-old, who is forced to begin their own business. The best thing our government can do for small business owners, as I conclude, is to limit regulation, lower and simplify taxes, and continue to invest in the education of small business owners at the local, State, and Federal level.    Thank you very much for the opportunity to share about the hustle--as I also like to say, the Smart Hustle--of entrepreneurship in America. Thank you so much.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much. It is not very often that we get called awesome around here. But thank you.    Ms. Solovic, you are recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. Good morning, everyone, Chairman Chabot, Ranking Member Velazquez, members of the Committee. I thank you so much for giving me the opportunity to be here with you today to share my insights and experiences as a small business owner and as an instructor to small businesses around the country. It is truly an honor to be here.    Let me begin by sharing a little bit about my entrepreneurial background. You see, I had a great mother. She became an entrepreneur right after she lost her first husband in World War II out of necessity, but she sure learned a lot. She had a number of businesses along the way.    When she married my father and moved to the town he lived in, they opened up their own funeral home. A very small, rural Missouri town, 3,000 people, now 2,999 since I have gone. I grew up working in a family business from the time I could barely even walk, and I started my own personal journey when I was 15 years old. After waiting tables and getting blisters on my feet, I realized there had to be a much better way to make a living. I realized I could teach little girls how to twirl a baton every Saturday morning, 75 of them in the high school gym, for $1 each. I thought, this is pretty good, better than working for tips. I opened up a small dance studio in my basement and taught little girls how to do ballet, tap, and jazz. Then, of course, college comes along and I moved on.    I followed a traditional career path for a while. I had a lot of success there. I was one of the first female executives in a Fortune 50 company in their financial services division. I am also, Chairman Chabot, like you, an attorney, and I got to work with many small business owners setting up their legal entities and structures. I also did quite a bit of franchise law during that time.    I have worked with small businesses in many capacities, but my heart has always been in my own entrepreneurial endeavors. I truly enjoy being my own boss. I like making deals happen. I like making money, and I like seeing it all come together, birthing those entrepreneurial activities and watching them grow. I, too, have had the opportunity to sell a business, in 2009, right toward the end of the recession. I was very fortunate; my business continues to prosper.    Unfortunately, as I talk to small businesses around the country, many of them are saying they are discouraged and disheartened. They are struggling. We know now that the number of small business closures is exceeding small business startups. That is a critical issue for the recovery of our economy. The Capital One Spark Business Barometer just noted that small business confidence is down almost 10 points from where it was this time last year. Businesses are struggling. They tell me their business dreams have now turned into nightmares, and that is sad.    I have created a process I call the 1 percent edge. It is a process to get small businesses growing again. It is to help them become and place innovation into the DNA of their companies because we all know now what is cool and hot today is obsolete tomorrow. If you are doing business the same old way you have always done it, you are falling behind when you get started.    I got the idea when I was teaching an MBA class on entrepreneurial growth strategies, and I had a co-professor because I travel quite a bit. The co-professor would stand there and talk about case studies. He would put big formulas on the board. And then I would stand up to the class and say, now, let me tell you how it really works. If you are studying case studies in today's marketplace that is changing so rapidly, you are behind the eight ball. As someone once said, if you are just now jumping on the bandwagon, you are too late. You already missed it.    We have to give entrepreneurs the opportunity to be innovative, not just in their product and service delivery, but in their internal processing systems as well. Technology is certainly changing, leveling the playing field for small businesses, yet we need to get them to embrace it. I love to see small businesses using social media because it gives them an opportunity to broadcast their brand. I had an advertising agency at one point in time and people used to say to me, I do not have money to market my business. Now they say to me, I do not have time to market my business. The world is changing.    Before I run out of time, I do want to deliver another personal story. Ramon talked about regulations. I know you hear it all the time. In today's news we are talking about the increase in the overtime pay. My parents, in that little funeral home, had an ambulance service for many years. It was not a profit center; it was a service to the community. The Department of Labor sent an auditor in and audited my parents, and decided whenever a hearse had a stretcher in it, it was covered by the wage and hour law. Whenever it was a hearse, it was not. Well, what happened is he extrapolated all the back pay my parents owed their three or four employees, told them they had 2 years to sue, and told them how to do it. Unfortunately, because it was not a moneymaker for my parents, they did not pay, no one sued, but they, like many funeral homes, quit the ambulance service. My little small-town community in rural Missouri had no service for many years until the hospital decided to take it over.    While I think that policies and regulations, as Ramon said, are good, and they are always passed with the best intentions at heart, sometimes we do not take time to understand the effects and the far-reaching effects that it has, not only on small businesses and jobs, but on our communities as well. I do believe that today we are living in a world where entrepreneurship is still great. This country was built on the spirit of entrepreneurship, and God love us all, it is still the greatest country in the world. Thank you all to the wonderful public service you do to help us and grow our businesses.    I also want to applaud you for your bipartisan efforts, to get some victories through in terms of legislation. You are helping us, we appreciate what you do, and I look forward to our discussion today.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much. With the way I mispronounced your name, you have every right to call me Cabot or anything else you want.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. I am sorry.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. It is quite all right. Quite all right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. Why would we not be simple like Smith or Jones, you know?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. There you go. That is right.    Ms. Emerson, you are recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>EMERSON</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. EMERSON. Thank you Committee Chairman Chabot and Ranking Committee Member Velazquez, and the rest of the Small Business Committee. I truly am grateful for this opportunity to share with you what I think is the status of small business in the United States.    My name is Melinda Emerson, but my nickname worldwide is SmallBizLady, and my mission is to end small business failure. Every single thing I do, every blog post I write, every book I have written, every interview I give, is about giving people nuggets that they may not even know will potentially befall them as they start a small business.    You know, the funny thing about being a small business expert is I rarely hear bad business ideas. Unfortunately, however, I see poor business execution everywhere. It is like the cold and the flu, it is everywhere. I have to agree with my colleagues that there are four major things that I think we need to help small business with.    Number one is access to credit and capital. A lot of the reasons why small business cannot get capital is because they have poor credit. I also think they need training. They need education. We need to talk about the best ways that the government can help do that. Certainly, there is SCORE. There is the SBA. There is the Small Business Development Centers. There are P-TECH centers, and there are some great work going on in these centers. However, there is some quality control issues. Depending on what city you are in depends on how good the services are in your city, and I think we need to do more with that.    I also think that we need to look at how we can help entrepreneurs get access to networks, particularly minority and women entrepreneurs. We did not go to the business schools that other people got to, so when the major decision on whether or not you get private equity funding has to do with whether or not you went to the same B school as the people doing the funding decision, I think we need to look at different ways that equity can be done. I am aware of programs that, you know, sort of like how SBIR grants and things are done. There are organizations, nonprofit organizations that have been given funds from the government to do equity investment, so it is not just about going in with a pitch board and having the right deck and the right idea and the right management team. I mean, there are other ways to get private equity capital in the hands of businesses that so desperately need it.    I also think we need to look at mentorship. Mentorship is essential. The work that SCORE does is God's work as far as I am concerned. I believe that SCORE has made the difference in so many. I am from Philadelphia, so I do have to give a shout out to SCORE Philadelphia. They have done an amazing job, and any time I can help them, I do. We do know that there are differences in other markets, so I do think that mentorship, networking, access to capital, and then just access to opportunities. I think if we look at the work that the government does and all the things that the government spends, I do think we need to enforce the set-asides, and it is not just enough for people to make a best effort; I think we need to start holding people accountable for missing their goals for set-asides for minorities, women, veteran-owned, as well as 8(a) set-aside contracts.    I also think that when these contracts are given or when people are partnered with prime contractors, we need to make sure they get paid, because one of the biggest issues that befall small businesses of all types, creeds, and colors, is getting paid. That is, whether they are doing business with corporations or doing business alongside a prime for a government contract, or, frankly, doing business directly with the government. Getting small businesses paid net 30 or faster through electronic funds transfer needs to become the standard and not something that if you have the right relationship you can make happen.    I think if we look at some of those things, I think that we will go a long way in making sure that we grow America's small businesses.    Now, Committee Member Velazquez, I wanted to address your excitement about the numbers of minority- and women-owned businesses that have been started over the last 5 years. While those numbers have grown, the revenues of those businesses have not. If you look at just women-owned businesses, for example, Asian-American women businesses, on average their revenue is $330,000. African-American women businesses on average start revenue is $38,000. What is the poverty number? Do you know what I mean? So when you look at what is really going on, a lot of these people are starting businesses because they got washed out in the recession. They still have not been able to find a job, so they are starting what I call side hustle businesses for cash. They are not really starting businesses that are going to scale. They are not starting businesses that are going to be able to hire employees if we do not give them some infrastructure.    I also think that when we look at models of things that we want to do to help small businesses, we need to look internationally. I have had the opportunity to travel as the SmallBizLady around the world, and I see other countries approach entrepreneurship as their strategic advantage in their country. If you look at Singapore, for example, they invest $50 million a year in youth entrepreneurship. They have a mall in the heart of their equivalent to Rodeo Drive just for youth entrepreneurs. Young entrepreneurs as young as 10 years old can get a stall in this mall and sell their products and services. They consider youth entrepreneurship up to 35 years old. They are strategically funding entrepreneurs and training entrepreneurs that young.    If you look at China, I had the opportunity to travel in October to Hung Jo, which is the Silicon Valley of China, they have a place called Dream Town. If your business qualifies to get into Dream Town, you get office space in there for 3 years. They have a $300 million fund to put equity into these businesses. Other countries are taking entrepreneurship very seriously. If you look at Start-up Chile, for example, Start-up Chile will give you $40,000 and a place to stay for a year if you are willing to go to Chile and start your business.    Start-up America is a PR campaign that at best you might network with some people if you go to one of their events. I think we need to get serious about entrepreneurship and these programs because I do believe it is a competitive advantage. I have a 10-year-old son who tells me all the time, Mommy, I do not need to go to fourth grade. I already know how to make money. I am like, well, sweetheart, I need you to know how to count money, so I need you to go to school.    My point, simply, is that I think we need to bolster programs like Junior Achievement, like the National Foundation of Teaching Entrepreneurship, particularly in our urban decaying schools that are struggling anyway. When we look at our ex-offender population coming out, we need to teach these people how to start businesses because they are not going to be able to get jobs anyway. I do believe that entrepreneurship is the difference, and it is my passion. I really appreciate the opportunity to come here today to talk to you about what we need to do to help America's small businesses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much.    I have to say, as chair of this Committee, if this is not the best testimony we have had from a panel, it is certainly at or near the top. Well done. All four of you were good. I kept thinking, that was great. That was maybe even better, and even better. This is really, really good. Well done. Maybe we should just not ask questions and let you all talk. We would not do that. We are politicians after all.    I will recognize myself for 5 minutes and we will move around here. I will begin with you, Ms. Ramberg, if I can.    What are some of the top questions that you are asked by small business folks who ask you for advice, either on the street or on your TV program? What do they ask you and what do you tell them, a couple of things?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. RAMBERG. We get questions. It runs the gamut. Right? How do I find money? How much money is it going to take for me to start my small business? How do I find good employees? We get very granular, so it could be how do I fire my first employee? I think, how do I get an IP lawyer, right? Where do I find a company to develop my Web site? I get questions across the board. What it speaks to is the fact that all of us have mentioned, there needs to be small business education. We are not reinventing the wheel. Any problem that you, as a small business owner, are dealing with, someone else has.    For instance, I belong to this organization called YPO, Young Presidents Organization, and we meet once a month where we talk about our business issues. It is an extreme shortcut for me to get to an answer about an issue that I am facing. So we need to create these networks, again, as Melinda just said, for everyone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much. Thank you.    Mr. Ray, I will go to you next. I had a prepared question but I thought of something I thought would be more interesting, so I am going to ask you something maybe a little off the wall.    I had the opportunity to meet not only with you in my office before this, but also with your beautiful wife and your daughter Charity. I do not know if Charity is interested in going into small business someday. But, if you had to give her advice on how to be successful down the road, how to prepare herself and what kind of things she ought to be thinking about if she want to be successful in life, or in small business, what would you tell your daughter?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. I do advise her quite a bit to her angst, unsolicited. I think there are a few things. It is interesting you asked that because that is a question that many people ask me. You know, they see me on stage and et cetera, and it is very simple.    I think, one, and this is not really small business advice, but for me, I find just being nice to people and making connections. Because there are some people who you come in contact with--I am sure we have all met them--there are some slimebucket nasty people out there. You cannot succeed unless you have a smile or are nice. That is one.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. That is kind of similar to the field that most of us are in up here, too. We would never say which ones are in that category.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. I understand.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. People usually figure that out on their own.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. Absolutely. The second thing I share with my daughter, you can ask her, I share with her and my son as well, make connections. Because the only thing different from me being here today, and we are all on the panel, and anybody else, is the connections I have made. Being nice, making connections, looking for and taking advantage of opportunities.    The third thing I would say is that going back to the grit or the hustle, the hard work, is love to be punched in the face, get back up, ask for more, but learn. My point is being able to innovate. You are not going to get it right the first time. Those are the three things I would say.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. You are welcome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Ms. Solovic, I will go to you now. You mentioned you had 75 kids that you taught years ago. I do not know if you have kept in touch with any of those or not, but did any of those young ladies ever become small business people or end up in careers that might be of interest to folks?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. You know, it is interesting. The little town I grew up in is very depressed and, unfortunately, most of the young people do not get out of that town. Very few people from there go to college. In fact, when I was growing up there it had the highest illiteracy rate of any area in the State of Missouri. So it is a very depressed community.    I do keep up with some of them on Facebook. They seem like they are doing well. They are married with children of their own. I realize I could easily be a grandmother. Not a problem. But they are doing well.    While we are talking about young women, though, I want to dovetail on something Melinda said, and that is growth capital for women-owned businesses. I know the Title III regulations go into effect on Monday. I think that is great for the crowdfunding source, but to really grow a large organization and scale it, you have got to get venture capital. It is very tough for most small businesses to get VC money. It is particularly difficult for women-owned businesses.    I started one of the first video-based Internet sites, and I did raise venture capital. I did not go to a pedigree school, an Ivy League school. I was not from one of the coasts. I was from the Midwest, and the fact that I was a woman was a big hindrance. I will tell you, the first venture forum I ever participated in, one of the men said, well, you are the only woman who is presenting, who was asked to present here, but we sure are glad you are good looking. And I wanted to say, seriously? Who would have said that to a man? It was so inappropriate, but there is tremendous bias and it is something that needs to be addressed.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you. I am almost out of time. Ms. Emerson, very quickly, most of the folks here on the panel mentioned SCORE and how important that has been. Would you want to comment on SCORE and what you have seen?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. EMERSON. I am a huge fan of what SCORE does, and I have participated many times as a presenter for SCORE webinars.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. For the people that are watching this, would you tell those folks what SCORE is?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. EMERSON. SCORE stands for the Society of--Service Corps of Retired Executives. Thank you. It is an organization of folks that mentor and help, and they work with businesses face-to-face or online, and they have an amazing Web site full of resources at score.org. It is a really treasured, valuable resource here in the United States for small business owners.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you. Just for the record, we have heard the same thing from lots of folks, too, about how important SCORE has been to them.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. Can I make one comment on that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. She mentioned their online training, which is very well-developed. The feedback I have gotten from some people, though, who have gone to SCORE is it is very diverse, sometimes, the quality of mentoring you get.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. You can get somebody really good.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. Right, or something--yeah.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. EMERSON. It depends on what city you are in. I think there are some hits-and-misses there, and that is what I was alluding to earlier about some quality control challenges, but you know, SCORE Philadelphia is awesome.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. All right. Thank you very much. Again, great panel. My time is expired.    The Ranking Member from New York is recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Yes. I would like to add that the SCORE reauthorization was reported out of our committee and it was Ms. Adams who authored that legislation, so I am glad to hear how you really cherish the contribution that they do, as they are a resource partner with SBA, the Small Business Administration.    I would like to hear from Ms. Ramberg and Ms. Emerson, you mentioned that the face of small businesses is changing. We have more women, more minorities, and younger people, right? Not everyone experiences the same struggles when starting or growing a business. This day, entrepreneurs are not only facing general startup challenges, but also student debt. How can we best help them overcome both of those challenges?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. EMERSON. Well, when it comes to student debt, I think we should make public universities free in America. I think that that might be a very good thing to do because I do not believe that the amount of money folks go to get higher education could at all possibly equate with the value of that education after they get it.    Now, in terms of how can we help more minority small businesses, it goes back to what we talked about earlier. We have to have different diverse pools of equity funding available. We have to encourage public-private partnerships. There are major corporations with foundations who have entrepreneurship as a goal. They could partner with major cities in America and run business plan competitions.    One of the things that I benefitted from in my business was the third year I was in business, I won the Minority Business Plan Competition in Philadelphia. I won $20,000 and free office space for 1 year in a business incubator called the Enterprise Center in Philadelphia, and that was a game-changer for me. That allowed me to hire my very first employee, and I have been in business for 17 years. So there are all kinds of things that can be done to help, but everybody has got to be on the same sheet of music to make sure that people are getting money to seed their ideas.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Thank you. Ms. Ramberg, can you comment on what are the greatest obstacles facing students and recent graduates as they try to get their companies off the ground?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. RAMBERG. Money and education. It is as simple as that, right? You need to have an idea for a company and you need to know how to grow it. I cannot tell you how many companies I have gone into and I ask something about their financials--and this is not just the youth, actually, this is everyone--and they cannot quote them to me. They cannot cite their financials. They do not understand. I say, what is your revenue? They cannot give me a number. If you do not have that, you are not going to be able to go into someone, whether that is an angel investor, a bank, any kind of funder, and get money. It starts with education. Once you have that--and people understand--and also, an education around testing. To understand that there is a true market for their business out there. Right?    We are dreamers. We sit around and we come up with ideas and we just believe that it is going to work. Understanding how to test whether there is a true market, someone is going to pay you for that, is something that every small business owner, entrepreneur needs to understand. Once they have tested, then you need to build out their networks and help them get face to face with funders.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. EMERSON. Congresswoman Velazquez, can I add something to that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. EMERSON. One of the other things I think would benefit, very early on when I started my first business I got a $25,000 loan from a SBA-backed fund called the Competitive Edge Loan Program. In addition to the $25,000 I got, I got 25 percent of that loan in technical assistance. My first accountant and my first marketing consultant came from those resources that were paid for through that SBA loan fund. We need more programs like that because it is not just the money, it is the technical assistance folks need.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. We do have microlending under SBA, and it is both. It is access to capital, right, and it is technical assistance. By the way, when we look at the default rate, it is the lowest of any of the loan programs that we have in place. And 62 percent of those borrowers are low-income women.    Mr. Ray, for those businesses without large operating budgets, word-of-mouth advertising is all they have. What more can be done to bring together small businesses and end users of their products?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. Thank you for asking the question. One of the things I talk about a lot is personal branding. I do not have a lot of money, did not have a lot of money. I do not know if I have a lot of money or not. I have to ask my wife. But my point is I did not have a lot of money.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Just for the record, his wife is shaking her head no, they do not have a lot of money, or not enough.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. Ranking Member Velazquez, I think the biggest thing is building their personal brand. I think you need money. That is actually helpful. But those who do not, if you network like heck, if you build your personal brand, leverage the power of social content, video, you can rock it and do quite a bit. I have built my brand quite a bit with just a video camera, a smartphone, and just Tweeting.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. VELAZQUEZ. Ms. Solovic, would you like to comment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. I totally agree with what Ramona is saying. As I said, people say to me, I do not have time to do it. You do not have time not to do it. It is a great way to build your brand. I was an early adopter of social media, and I remember after I sold my business and I was starting out again all over and I would sit there and Tweet things out and post things on Facebook, and my husband would say to me, you are wasting your time doing that. That is just silly. You should be making sales calls. Well, today, I do not have to do any outbound marketing. Everything comes to me and walks in the door simply because, as Ramona is saying, I have built my personality brand. I have a huge following. I am always listed in the top five of small business experts to follow on Twitter.    It takes some time. It takes authenticity. You cannot job it out to anybody else. They want to know it is you. They want to talk to you. It is a great advantage for small business because large companies who are out there, it is great. They are building their brand, too, but they are not humanized. They need people like us to talk to the small business market, and that is what we do best.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much. The gentlelady's time is expired.    The gentleman from Missouri, Mr. Luetkemeyer, who is the Vice Chairman of this Committee, is recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>412292</t>
+  </si>
+  <si>
+    <t>Member</t>
+  </si>
+  <si>
+    <t>Luetkemeyer</t>
+  </si>
+  <si>
+    <t>Blaine</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. Thank you, Mr. Chairman.    Ms. Ramberg, I was interested in your comments a minute ago. Somebody who sits across the table from a lot of people who are aspiring entrepreneurs and trying to find ways to help them, what you said is really quite accurate from the standpoint that entrepreneurs quite oftentimes are people with big ideas or the folks who can dream and think outside the box, can see a niche, can see an opportunity, or sometimes they may be left-brained, but their right brain part of it, they do not understand the business part of this, how to set up a financial plan. You just said a minute ago that they could not give you the statistics off their P&amp;L. That is where it is important for them to have access to that education to be able to understand there is a flip side of this, or be able to go find people who can help them do that. Your comments are very apropos here from the standpoint that in order for entrepreneurs to grow, they have got to have the ability of people to help them through the myriad of rules, regulations, access to capital. A number of you have talked about that this morning, and I think you mentioned it a minute ago.    What do you propose to people who have access to capital problems? What is your advice to those people on how they can go find money or present themselves in a way to be able to access themselves to the kind of money it takes to be able to get a business started?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. RAMBERG. I do work with a number of people who are going to talk to angel investors. We have a number of angel investors who come on the program, and so help them in sort of organizing their thoughts down so that they can present their elevator pitch in a way that will at least pique somebody's interest. We also talk a lot about just alternative financing. Right? So all these FinTech companies, OnDeck Capital, the Lending Club, and thinking about factoring. Think beyond a traditional bank loan, if you are not in a position to get one, and look into some of these other ways to get money.    I also talk a lot to people about bootstrapping. My company was bootstrapped. My mom's company was bootstrapped. The company that I mentioned, which turns T-shirts into blankets, was also bootstrapped. If you can get yourself to a certain position where you have a little bit of success, it will be much easier to get money on down the road.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. Ms. Solovic, where in Missouri are you from? I am a Missourian.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. Fredericktown, Missouri.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. Oh, yes. Very good. I was guessing southeast Missouri from the comments you made, but okay, very good. Nice little town, been there many times. Not in my district, but it is still a good place.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. Thank you. It is a good place to be from.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. Good place to be from. Well, that is okay. It is nice to go back home there, too.    You talked quite a bit about some of the--again, going on some of the comments I addressed to Ms. Ramberg here, what do you see with the folks that you talk to with regards--to me, access to capital is really key to being an entrepreneur off the ground. You have to be able to get the money to make it work. It is what greases the skids and what makes it all--what is your advice to people to be able to get them to be able to take that idea to the next step?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. I am going to respectfully disagree with you on your comment because I think that when people come to me and they want to know where is the money, show me the money or I am just going to go out and get a SBA loan, and I am like, well, good luck with that, because most of us bootstrap. We use our own personal assets, credit cards, and go to family and friends for loans. So when people tell me, well, I have this idea and I would be able to make this business really go if I could just get some money. I want to say to them, you know what? You do not want to do it very badly. Because if you really have a passion, as my mama used to say, where there is a will, there is a way. If you really want to make it happen, you can start and make it happen. With technology today, the barrier to entry is so minimized, and you have got information and resources right at your fingertips.    The one thing that I get a little alarmed about is the professional advice from attorneys. I have seen a lot of mistakes that come offline from going to those kinds of resources. But, it is there, it is available. You might not be able to start as big as you want. You may have to shrink your plan a little bit, but by golly, if you are willing to have that passion and put forth that sweat equity, you can make it happen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. Okay. Mr. Ray.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. Yes, sir.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. One of the things that you were talking about here is reduction and simplification of taxes. Can you give me an example of where you would like to see some reduction and simplification? How it would work and what the advantage would be to small businesses?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. Sure. Having said that, I am not a tax expert by far. I am a personal branding expert.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. Again, we want your ideas. You are the entrepreneur here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. We are the guys who are supposed to make this all happen.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. I went through a tax audit a few years ago. When the IRS called me, she had a southern accent so I assumed that she was my friend and she was the best person in the world. She said, Mr. Ray, we would like to come to your home and all this. The IRS is great, they do great work, we need to pay our taxes. But my point is that I wish half the problem was my own. I wish that I had better advice and taken better advice as many of us said. So that is one.    But point two, just going through that process, the arduous process of the letters and the writing and the audit, it was exhausting. Thankfully, I had my tax attorney. We had to go through it. What I mean is that my industry is just content, but imagine the industries that deal with other things, manufacturing, et cetera. There are a lot of things they have to go through just to pay taxes. If they do not do it right, then there are things they have to go through to get it right. That is an example of what I mean by making it a bit easier for small businesses to pay taxes and to rectify if something goes wrong.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. The gentleman's time is expired.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. LUETKEMEYER. Thank you, Mr. Chairman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you.    The gentlelady from California, Ms. Hahn, is recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>HAHN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. HAHN. Thank you, Chairman Chabot and Ranking Member Velazquez, for holding this hearing.    Small businesses truly are the backbone of this nation. I represent a district in Los Angeles County, and I see firsthand the hard work of thousands of small businesses take to achieve that American dream that so many of you are speaking about today. I think this Committee is really one of the most important committees in Congress because 99 percent of all businesses in the United States are small business. During my time on this Committee, one of the things I focused on is women- and minority-owned businesses, because that is the makeup of my district back in Los Angeles. We brought many women and minority small business owners together for roundtables and SBA workshops, and we have in my hometown a number of successful women-owned businesses. Some of the San Pedro favorites are the Omelet and Waffle Shop, a new coffee shop called Sirens, and a clothing store called Dramatique. While these businesses have been flourishing in my district, I was a little bit disheartened to learn that the percentage of women starting small businesses has been declining over the past 20 years. A recent study by the Kaufman Foundation found that the share of women startups fell from 43 percent in 2010 to 36 percent in 2015, which is close to a two-decade low. The decline is even more evident among younger women where the average number of businesses started by young women has decreased by 27 percent since 1996.    I think there is a variety of reasons for the decreasing number of women starting businesses. According to one Wall Street Journal, women have less access to capital, are erroneously perceived as less competent than men, and have less confidence when it comes to their success and potential failure.    I was going to ask those of you who are here today, how can we get more women to start businesses? What should this Committee and SBA do to address a problem that you might see happening out there? I would be interested in hearing all of your responses to this.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. EMERSON. Well, I would say that if you want to target more women business owners, particularly younger women business owners, we have to start talking about entrepreneurship much earlier in their educational cycle. I believe that elementary school is not too early to start teaching principles of entrepreneurship, and thus, we make it so that they understand that it is a potential idea as a career option, and it is not just about going to college and getting some good job. That does not exist anymore. So I think it is about helping people learn skills that are valuable much earlier.    I also think it is about more targeted programs. We need an incubator for women entrepreneurs. We need funding specifically targeting minority and women entrepreneurs, and we also need to make sure they are not fronts for their husbands. There is a lot of stuff going on around folks self-certifying that they are women-owned, and we need to make sure that it is actually; for a woman-owned business, it is actually run by a woman.    But, if we start doing targeted programs, targeted business plan competitions, that kind of stuff will help get the numbers up and really give them a boost because it needs to have money attached to it. Five thousand dollars is enough money to get in trouble. That is not enough money to run a business. We need to make sure that when we do business plan competitions and stuff like that, the prize money is $20,000, $25,000, $50,000, that it is real money that is going to make a difference in these people's businesses.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. HAHN. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. I would like to note that I think it is education, because I think a lot of women start businesses because they are good at what they do. It is a little craft. It is a little something, but they are really not educated on how to build a scalable and sustainable enterprise.    Also I mentioned I raise venture capital. After I did that in 2006, I wrote a book called The Girls' Guide to Building a Million-Dollar Business, because I figured if I could do it, anybody ought to be able to do it. It is not brain surgery. At that time, only 3 percent of women-owned businesses were grossing over a million dollars a year. According to a recent Forbes Magazine article, only 2 percent of women-owned business gross over a million dollars a year. A million dollars is not very much when you are talking about revenue.    In working with some women's organizations, too, when I talked about making money and business, if you are not going to make money, go volunteer. They say to me, well, I do not want to make a million dollars. I do not need that much money. And they do not want to talk about the money part. You know what? You have got to talk about the money part, that is what it is about.    I think there are stereotypes that still say to women in this country that making money, being aggressive, being successful is not feminine. We should not worry our pretty little heads about money, honey, and we have go to change that psychology. It is an undercurrent that still ripples through this country.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. I would add two things being the minority on the panel here of women, no pun intended. I would say two things. I would say, one, the focus could be not only on starting businesses, but I would encourage my women friends, also those who have already started, how can we encourage them to grow? You know, the number of who is starting, but let's say starting or not, those who are in it, what can we do to succeed?    Two, I would say working with small business owners in large, many of them women entrepreneurs, there has to be some element of, without putting my foot in my mouth, getting out of the bubble of just being for women, if that makes sense. Meaning, I talk to many women entrepreneurs. I am a women-owned business. It is four women. Four women. Where this world is beyond just women. Do you know what I mean? So it is kind of reverse. It is in a bubble.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. HAHN. It is? Are you sure about that?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. Does that make sense what I am trying to express?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. I am not going to touch this debate here.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. RAMBERG. Can I just add one thing?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Ms. Ramberg, go ahead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. RAMBERG. It is examples. Right? When you see a successful woman, you see that you can do it. And so the more, I mean, it is amazing that there are three women on this panel, but the more we can show that women are successful. I am in New York, and in New York City there is a burgeoning and very exciting community around female entrepreneurship and there are lots of conferences and lots of mentorship. I think that is what it takes. Again, it is about a community.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. Could I add one more comment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Go ahead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. All right. So----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. I have lost complete control. Go ahead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. So I have to share this story.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. As long as you pronounce my name right.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. What was that again? Cabot?    I did some consulting for a very, very large financial services firm--and I will not mention their name here--on how to reach the women business owner market. They sent me all around the country to talk to their regional sales forces, and I was giving the statistics that we just discussed here and women growing businesses and all of that. I happened to have been south, and I will not say what state it was either, but we broke for lunch, and one of the investment counselors came over and he said, oh, there, pretty lady. You know, you did a nice job, but I just do not believe those numbers. And I said, really? He said, well, I know the only reason a woman goes into business for herself is because her husband wants to give her something to do or he needs a tax write-off.    Well, thank you, Mr. Chairman. I know my time is expired. I appreciate the indulgence on this question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Long ago. But that is okay. This was great.    The gentleman from New York, Mr. Gibson, is recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>412453</t>
+  </si>
+  <si>
+    <t>Gibson</t>
+  </si>
+  <si>
+    <t>Christopher</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GIBSON. Thanks, Mr. Chairman. I must say this is an awesome hearing. I am learning a lot and I am really inspired. I appreciate that very much. I know our middle daughter, who is interested in going into business, she is going to find this link very informative and inspiring, and I think she will probably be looking up some of your shows and everything like that going forward.    Mr. Ray, I was very interested to hear your comment. You were using Uber as an example, really as sort of a counter example. What I would like to hear is your thoughts on if we had a do-over, how might federal and state, perhaps even local, governments approach that issue in a manner that would certainly make sure that justice, safety, and public health is preserved, but at the same time, facilitates a good idea that is something that is really being demanded in the market.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. Being the travel expert that I am not, from my observation, as one who has used Uber before, and taking them as an example and then I will move quickly to another point, but as one who has used Uber and as one who has used taxis. There are two sides of this equation. We know it is a public debate, good and bad and et cetera.    Regulation, obviously, is important. But, what I found, at least in New York, being a few minutes from Newark Airport, is that you have the taxi industry that was one bemoaning and complaining about it, which has a valid point. New York City has a lot of big taxi industry. But, I saw that with Uber, this is a small innovative company. This is a car-sharing service. Small business owners, when I go to Newark Airport from my home, there are guys who say I am using Uber to make more money. From my simple observation, clearly it is a company that is helping in some way. And we could do more. Mayor Baraka, I think in Newark, he made a deal with them, so I think we can do more to ensure citizens are protected, but while having innovation go as much as it can until it becomes a danger, like the airlines or something that has to have some, if that makes sense.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GIBSON. Yes, that is helpful. Do any other panelists want to make any comment on that before I go on to the next?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. EMERSON. I think whenever we get in the business of trying to protect one industry to prevent another one from growing, that is a slippery slope for us to get on. In Philadelphia, there was also a nightmare fight with the taxi authority and the city with Uber, and I felt like if the taxi drivers had done a better job, Uber would not have a chance. They should be like any other business, and they should face competition like anybody else.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GIBSON. I really appreciate those remarks. The last question I have has to do with access to credit and capital, which you all hit on in one form or another. Ms. Solovic's comments about being self-starters and finding ways and working with family, agreeing with all of that, I am also interested in hearing your assessments as to Dodd-Frank, as to how well it is going or challenges that have emerged as it relates to access to capital and credit.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. What we have seen as a result is that the level of lending, traditional lending, has really decreased to small business owners. There was a time, I think, during the recession that we heard a lot, or at least I did, from small business owners that they were not even applying for the loans because they did not want the debt. But also, there was that fear factor that their financial statements were not as strong as they had been and that they would not qualify, so what did it matter to try? But here we are, now, with some recovery going on in the economy, and you would think we would see a change in that, but we have not. As we said earlier, the crowdfunding platforms, the Title III regs, I think all of that is a positive step for small businesses. I do think that having more education, so that people understand, and more examples of how you can get a business off the ground without going out and putting yourself into debt with a bank or a lending program.    Personally, when I started my Internet company, I took out a big credit line on my house, and we were totally self-funded originally. I remember going to the venture capitalist. We were in front of Sequoia and they looked at my numbers and they said, well, you need more eyeballs on your Web site. And I said, but we are profitable. Look at my financial statements. They said, we do not care about that. I said, if you were funding it out of your own pocket you would, by gosh. I think education is important.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. EMERSON. If I could add, when it comes to access to credit and capital, the first indication, small businesses knew the recession was coming before the recession hit everyone else because banks started rescinding people's lines of credit and they started turning them into term loans. People have not recovered from that. The people that were able to hang on and stay in business, they are not creditworthy. What has happened is now we have these cash loan lenders that have popped up and who are preying on businesses who cannot get capital anyplace else. They are happy to fund you if you have got a 600 or a 620 credit score at 24 or 25 percent interest. If there is any place where you guys do need to start regulating is those people. These cash flow lenders out there, to me, are snake oil salesmen, preying on people who need cash. They are only willing to do loans for ecommerce businesses that are doing 10 grand or more a month.    Also, too, one thing about crowdfunding. Crowdfunding is great if you have got a great product business and some sharp marketing. But the average crowdfunding campaign makes $10,000. That is a hard way to make $10,000. I do think Title III is going to help more people be able to get into that business, but I also think that is a little bit of a panacea. Right? The deal is, if you want to start a small business in America, your money is going to come from your right or your left pocket, so you better have taken care of your savings, protected your credit. Hopefully, you own property that you can take out a home equity loan against because that is really what it is going to take because banks do not loan money to startup businesses until you can prove you do not need it. So that is it.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. I am also very concerned about the new calculations, and I am not an expert on this, but where someone leaves a company, they take a 401(k) plan, and then they flip it and make it a 401(k) in their company, and then they deplete those funds to start their business. We have got more baby boomers. I am a baby boomer, and we have retirement issues in this company. I am so fearful that people go out and bet the family farm and then what happens? Because you know what? Your challenges of starting a business, your likelihood of success, you might as well go throw the dice out in Las Vegas. It is just about as good an odds.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. GIBSON. Well, unfortunately, my time is expired. I want to congratulate each and every one of you on your personal successes and also thank you for sharing those stories for inspiring so many others.    Chairman, I thank you for your indulgence.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much. The gentleman's time is expired.    The gentleman from Mississippi, Mr. Kelly, is recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>412673</t>
+  </si>
+  <si>
+    <t>Kelly</t>
+  </si>
+  <si>
+    <t>Trent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. You know, I am starstruck with this panel. Thank you guys for being here. Mr. Chairman, thank you for bringing such a distinguished panel, and it is great to hear from--first of all, you are all excited about what you do, and I think enthusiasm is one of those things that any business, or whatever you are doing, that you have to have enthusiasm. To see people like you, you are all role models for people out there. So, thank you for being here, and for what you have done for small businesses in our industry.    Mr. Ray, I want to briefly touch with you, and I had not intended to ask you a question, but I am so appreciative that you brought your family, because it is much like serving in the military or anything else. Whether you are a small business or anything else, it is a family deal. You are all involved and engaged. Not using someone else's name, like other people have mentioned, but to have people who are involved and are part of that, and you gave your daughter some great advice. I found in life, relationships and leveraging those, and understanding those is one of the greatest things you can ever have is the capital in people. So do you want to comment any more on that, Mr. Ray?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. No, just to thank you for having us and I think that, yes, family is important. I think the two things education, as we have said, education solves many problems, but definitely family. And I thank God for my wife. Not that she is always right, but she----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. Well, it is going to be a long ride home.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. However, however, she is right most of the time, and I am very happy that she is giving me advice in business, but also the things around business that make it successful. So I am very thankful for her.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. And then Ms. Ramberg, although not in my district, Natchez, Mississippi, is in Greg Harper from my state's district. You noted in your testimony several consistent themes that you found in various cities that were part of the Main Street series. First, for those who may not be familiar with the series, will you briefly share about the series and particularly about the Natchez visit?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. RAMBERG. Absolutely. We have gone around the country and visited Main Streets across the country--Natchez, Mississippi; Galena, Illinois. We were just in Daytona; Brundidge, Alabama, to just try and get kind of a temperature check on what is going on on Main Street. What we found consistently at the Main Streets that were revived, over and over we heard the story of big box stores moved in, our factories closed, Main Street shut down. It became lots of shutdown businesses, crime. The Main Streets that were able to revive almost to a Main Street was because of one person or one organization that organized everyone. Because the fact is, running a business is hard and it takes all of your time. So you have to concentrate on running your business and also reviving Main Street. These Main Streets have had a person or an organization who did that for them. It was pretty interesting.    Another interesting and important thing to note, about what we learned on Main Street, I have done a very informal poll of companies that I interview and just say, do you feel like anyone is looking out for you? We almost always hear no. I know this Committee does a lot, I know the SBA does a lot. I know there are a lot of organizations that are out there trying to help small business. But somehow it is not trickling down, so small businesses across this country often feel very alone and unsupported. I think there needs to be some education and some public relations around the resources that are available to them. We all know SCORE here. A lot of people do not.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. May I make a comment?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. Be quick because I have one more question I want to get to.    Ms. Solovic, and I hope I pronounced that right, in the South, we do not do over one syllable usually. But first of all, I want to thank you for your mother, and again, it goes back to family, and your father's service to this great nation. That is very important to me, and I think that our veteran-owned businesses, which we have not talked about a lot, I would like to give these guys and girls opportunities to proceed forward because they paid their debt to this nation, and anytime we can forward their agenda and help them to be successful in life after the military, that is great.    But can you elaborate a little bit on the Department of Labor's overtime rule and how that has impacted your business and other businesses, please?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. Certainly. I get a lot of concern from small businesses, especially with the increase to the threshold of $50,000. It will cost jobs in many, many small businesses. And not just the level of increase which is huge, but the fact that the complexity of the guidelines is very, very difficult for small businesses to follow. To know who is exempt and who is nonexempt, and how it applies. When I mentioned my father's ambulance service, how do you say today it was an ambulance, tomorrow it was a hearse, and who worked when? The complexity of it was overwhelming to him.    My other concern is, and I hear this from many small businesses in smaller parts of the country, particularly the Midwest and the area of the country I grew up in, $50,000 in Manhattan is nothing; $50,000 in Fredericktown, Missouri, is a heck of a lot of money.    I just sold my family's home. My father is now in assisted living. It was a big house, 5,000 square feet, 4 bedrooms, 3 full baths, 2 half-baths, a finished basement, and an extra lot for $116,000. It is a different world, we cannot make arbitrary decisions like that.    We need to give small business owners the flexibility to manage their business in the way they deem appropriate. We are not slave drivers and greed mongers like we saw in the Industrial era. We want to care for our employees, we want to care for our families. We want to give back to our communities, and the statistics on how much more a small business gives back to their community as opposed to a large chain company is significant. So we are trying to be good. We are trying to do the right things. We just need government out of our business.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. RAMBERG. If I could add one thing to that. I cannot stress enough the problem with complexity. People are happy to follow the rules, but sometimes it is hard to know what the rules are. You spend money on lawyers, money on accountants, and time that you could be spending marketing or talking to your customers to just figure out if, in fact, you are following the rules correctly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. EMERSON. And if you make a mistake, it is costly.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you. Thank you. The gentleman's time is expired.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. KELLY. I yield back, Mr. Chairman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you.    The gentlelady from Michigan, Ms. Lawrence, is recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>412638</t>
+  </si>
+  <si>
+    <t>Lawrence</t>
+  </si>
+  <si>
+    <t>Brenda</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. LAWRENCE. Thank you, Mr. Chair.    I would like to ask this question of Ms. Emerson. Hearing the discussion on the challenges, there has been a shift in the development of small businesses to the use of incubators. What does it mean to startups to have that kind of business when you are saying you need support? What is the role, and how can we support the incubators if that is the way to provide you with the support that you need?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. EMERSON. Well, I am glad you asked me that question because I won a business plan competition that put me in a business incubator and I actually ended up staying in there for 5 years. So I can talk a lot about the value of incubators.    I think the number one thing you fight when you start a business is loneliness and feeling like you are by yourself. So the fact that you can walk down the hall and commiserate with someone else that is trying to figure out how to get paid by a vendor, I think that is very important to have a sense of community. What I also found valuable in an incubator is that education can be done right in the same building. Networks can be set up. Potential funders that are interested in the businesses in the building can come in and see a cadre of businesses, not just one type.    The Enterprise Center in Philadelphia is where I was located, and that turned out to be such an incredible proving ground for me in my business. It made all the difference in the world because when I started my business, back in 1999, being a homebased business was not cool. If you were working out of your basement, people did not take you seriously like you were in business. When I won my business plan competition, I was like, I am out of here. I am going to work every day. I got a parking space. It makes you feel--nowadays everybody is telecommuting and everybody is working from home, but it was not like that almost 20 years ago. So I think it is a great thing to do.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. LAWRENCE. I appreciate that. I think we, as the Small Business Committee, should really spend some time supporting that.    I want to ask Ms. Ramberg, one of the greatest areas of success in my home state in Metro Detroit has been the rise of women-owned small businesses. According to the U.S. Census and the Small Business Administration, Michigan ranks among the top 10 states in the number of new small businesses operated or open by men and women who are self-employed. How can we sustain the growth rates among women in small business? As a small business owner yourself, you already outlined some of those, but what would you advise us on this Committee on how we can do a better job with women?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. RAMBERG. Again, I think it is truly about mentorship. We do have issues. There are still many women out there who say that they go to find funding and they are discriminated against. I am quite sure that is true, but I think that if you are a woman who is going for venture funding and you talk to another woman who has been to that same person and asked for money, you will know what to look for. Again, I believe the answer is quite simple, which is just get people together, the experienced with the inexperienced. Get networks of women.    There is an organization called the WE Festival in New York City. It just happened, and it was for women entrepreneurs, and the excitement around it and the sharing of knowledge was huge; 10,000 women from Goldman Sachs, again, another organization. If you just get people together.    I went to a dinner. It was 20 women brought together from different industries by somebody, and by the end of the dinner, we went around and every single person had to ask something they needed help with. Three women at that table said I need help raising money for my company. And guess what? The next day they were contacted by people. Now, I do not know if they will get the money or not. It will depend if the businesses are good, but I am fortunate that I have this network in New York City. If we can create those same networks for people so that you feel comfortable saying I need this, and someone out there says, okay, let me help you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. LAWRENCE. Mr. Ray, and this is the last question, what are some of the challenges that you face in the competition with the corporates? I hear that often. I am a small business and I keep jumping up raising my hand. Look at me. Look at me. I can do it. What are some of the challenges there?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. It is very competitive. For example, I produce events and I have a magazine. There are a lot of bigger companies than mine. Sometimes it is the wherewithal to keep pushing through. I think that is one.    I think, two, it is the business owner not having the education to talk the language of the large business person. That is what I have learned, what has helped me. I am talking to a big company, I will not mention them here, but a big courier or a big financial services company, a big bank. There are ways I have to talk. There are documents I have to have. They are risk averse. They do not know who I am from Adam, or Eve, for that matter.    Those are two things that I have found that will be helpful. The small business owner must learn to talk the language of big business and not think small, as you have alluded to. That is the way to succeed. Thank you.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. LAWRENCE. I hear clearly the need for information and training, and I love the analysis of not being alone and having access to those. So thank you, I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Thank you very much. The gentlelady's time is expired.    The gentleman from Nevada, Mr. Hardy, who is the Subcommittee chairman of Investigations, Oversight, and Regulations, is recognized for 5 minutes.</t>
+  </si>
+  <si>
+    <t>412645</t>
+  </si>
+  <si>
+    <t>Hardy</t>
+  </si>
+  <si>
+    <t>Cresent</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HARDY. Thank you, Mr. Chairman.    Thank you for being here. I must say that I believe, Mr. Ray, your father and mine must have hung out together because my dad used to tell me, son, you can do it and like it or you can do it and hate it, but either way you are going to do it. Your attitude determines your altitude.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. I think they did hang out together, I think so.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HARDY. All of you seem to have a great attitude. I think that is part of the success.    Myself, being a small business person in the past, I had some successes, had some challenges. One of the challenges that you brought up, Mr. Ray, and also Ms. Ramberg, the federal government and duplicative regulations coming from not just from the federal government, from the state governments, the county governments, the city governments. Can you elaborate on that a little bit, Mr. Ray, what is your conversation there?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. Absolutely. Sure. What I think, as you said, is that there is a labyrinth of different things. If I do it right this way, it is wrong this way. Right this way, wrong this way. The best example I can give, again, with New York City in my backyard, I know the New York City Department of Small Business Services, I think it is called Fast Track. I do not recall the exact name. They have a system where they set up where you go to one place and the organizations, the entities are all in kind of one place. That is an example of something that can help. You go there, fill out a form. Other people and the civil servants are trained to help you navigate through that. Because if you are not trained or educated--and all of us are just experts in what we are doing--it is tough. It was tough to get in this building, much less being a small business owner.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. RAMBERG. I think it is clarity and knowing where the information lies. In San Francisco, for instance, right now you need to put a new employee poster up right now. My company works with a PEO who tells us, hey, here is the poster, go put it up. If we did not work with them, we would not know it existed. That is a tiny example of things that happen all the time.    The amount of time and energy trying to understand what the regulations are, trying to work with the government to get around them, if there is a way to do it if it does not work with your company, and then comply with them. Again, the exempt rules, they are very complicated. It seems like they are easy, but it is not. There are people who do not exactly fit into one side or the other, and there is no place to go ask. If you go ask someone they say, oh, you have got to go figure it out yourselves. Having that answer as a small business owner, when this is not your core business, is incredibly frustrating and time-consuming.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HARDY. Thank you.    Ms. Solovic, you mentioned in your testimony about the overtime rule being a backbreaker. Mr. Knight and myself brought over 100 congressional members together to sign this letter to try to rethink how we are doing this. Can you elaborate a little bit on some of the challenges, this being backbreaking also and one size fits all does not necessarily fit?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. Right. I think that is pretty simple right now just the way you said it. It is not the $50,000 necessarily. It is the nonexempt versus the exempt, the paperwork, the tracking. I said, in parts of the country, $50,000 is a lot of money to make. You are not victimizing a low-wage earner. Take the time to look at regulations such as that and look at the true impact on a small business and the community. If a small business has to cut jobs and they are on Main Street, it hurts that community. Where else do people go to get jobs? You do not have big industry or big companies coming in there, so it costs the entire community once those few jobs are gone.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HARDY. I would like to touch on a little different subject somebody brought up, and I think this might have been you, Ms. Solovic, but it had to do with the length of pay, especially on federal government jobs. The challenge is, I have seen myself, it jeopardizes small businesses. I was usually the larger business. I would have to wait for 90 to 120 days for the federal government to get paid, which meant in turn it makes it tougher for me to get the finance to be able to pay my vendors and that trickle down. Any suggestions on how we fix that here federally?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. EMERSON. Well, I think you just have to make it a law. Folks have to get paid net 30. I mean, honestly, it is such a challenge because cash flow is king in a small business. If you have employees, you have to make payroll, regardless of when you get paid. Because it is so difficult for small business owners to get lines of credit, I mean, even if you qualify for a line of credit, the most you are going to get is 10 percent of your gross revenue. So for a business doing half a million dollars, that a $50,000 line. Well, if the government owes you $180,000, do you know what I mean? It strangles small businesses if they cannot get paid on time.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. HARDY. Then that 10 percent retention on top of that ends up strangling somebody when you do not even have that kind of----</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. EMERSON. Then by the time you get the money, it is not even the same value if you had to go out and factor the invoice or had to go to one of these payday lenders for small business, which is what I call these cash flow lenders. It is strangling people's margins, and people are not able to make money because they cannot get paid on time. It is a huge issue, but it is not just a huge issue in the federal government. I think that there should be some MOUs that go out with corporations because I have found that the larger the corporation is, the harder it is to get paid, too. So it is not just a federal government problem; it is a problem all over the place. Everyone thinks they can pay a small business last or late.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. May I underline something?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. Yes, go ahead.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. I wanted to underline that. Thank you for asking the question. It is a double problem because, again, your money comes in late and you have big checks, $20,000, $30,000, or Melinda has $100,000 checks, and you have to pay out. I just got an email last night from one of my vendors who I work with. Ramon, I sent you an invoice for $1,000. I need that money. Can you get it to me? I am going to forward that money to him tonight. But the money that is coming in for me is going to take 45, 30, 90 days. I just wanted to underline it, is jamming me up.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. I would say when it comes to the corporations, even in the agreements that I sign with them now, they will just put 90 days. You have to float that money, and it is tough on us.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. The gentleman's time is expired.    The gentlelady from American Samoa, Amata Radewagen, is recognized for 5 minutes, and she is the Subcommittee chairman on Health and Technology.</t>
+  </si>
+  <si>
+    <t>RADEWAGEN</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mrs. RADEWAGEN. Thank you, Mr. Chairman.    This has been really fascinating. I have learned so much today.    I have a question for all of you, is the same question. Maybe we can start with Ms. Ramberg. What are some of the things that can be done to inspire the next generation of entrepreneurs?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. RAMBERG. I think we are inspiring them. I think if you talk to millennials, if you have been into a WeWork office recently, it is filled with people who are inspired to start businesses. What we need to do is we need to keep them inspired and we need to keep them realistic. We need to talk about the challenges around small business, and we need to give education. It is the same as we have been talking about here. When I started my show 10 years ago, there were organizations focused on small business and entrepreneurship that were shutting down. Now there is a cult of entrepreneurship, and I think people are very excited to start their own small businesses, we just need to provide them the resources to do it. I think they want to.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. Thank you for the question, my answer to that would be, just keep doing more of what we are doing here and keep providing platforms. I mean, the four of us, we have reached a level of success, but I think there is that cult of entrepreneurship. What can we do to go to the inner cities, those who are not yet inspired who think they cannot do it? I would just add that. How can we go maybe to small islands, et cetera, and help inspire them more and more and more. Thank you for the question.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. SOLOVIC. I agree. I also believe, I have always told people children emulate their parents, so they behave and do things, what they see growing up. I think the same is true for young people today. You know, let's lead by example. Let's give them opportunities, even in grade school, to understand what entrepreneurship is and how fun it is to run your own business and be your own boss and make money. There are options other than traditional work paths for them to be successful in this country.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Ms. EMERSON. I would like to echo the same. I think it is about highlighting success stories, big and small. Highlighting youth entrepreneurs, women entrepreneurs, veteran-owned entrepreneurs, and making sure that National Small Business Week is not just PR. It is really about highlighting the successes and honoring people who are doing this work so that people can say, you know, I want to get that award one day.    I think also looking at MED Week and putting some real teeth and resources around MED Week and highlighting minority women entrepreneurs during those times is really important because people look at that and see that as something of value. Everyone likes to hear their name called and get a little plaque with their name on it. So I think that more of that really will go a long way of making people feel appreciated and acknowledged and other people inspiring to feel the same way.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. May I add one more? May I answer one more?</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mrs. RADEWAGEN. Yes.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. I wanted to add, ma'am, and say that, not to be the contrarian, but small business ownership, entrepreneurship ownership is difficult. I think it could be interesting to highlight it so people can see, you know what? This is not for me. Let me go, I do not know, go work in Congress or something like that.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mrs. RADEWAGEN. Thank you, Mr. Chairman.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mr. RAY. I am just teasing.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Mrs. RADEWAGEN. Thank you, Mr. Chairman. I yield back.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">    Chairman CHABOT. We hope you are.    The gentlelady yields back.    I think all the questions have been asked and answered. As chair of the Committee, I want to thank you all for your testimony here today. It has been very inspiring. I know that we have all learned a lot. In fact, we have decided to have you all come back every week from now on. We really do appreciate it.    I think Chris Gibson, the gentleman from New York who has left at this point, he mentioned he was going to have his daughter, who is an aspiring entrepreneur, watch this maybe down the road. I would recommend that our staff tries to get this out because I think a lot of small businesses all over America, whether they are thinking about starting a small business or whether they already have one and they are looking for ways to improve it, I think there are just pearls of wisdom here that we do not want to just go off into the ether. You have all really done a great job, and thank you so much. I think you have done your country a great service, you really have, so thank you very much for this morning.    I would ask unanimous consent that members have 5 legislative days to submit statements and supporting materials for the record.    Without objection, so ordered.    If there is no further business to come before the hearing, we are adjourned. Thank you very much.</t>
   </si>
 </sst>
 </file>
@@ -407,7 +959,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:J159"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -415,7 +967,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:9">
+    <row r="1" spans="1:10">
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
@@ -440,33 +992,4697 @@
       <c r="I1" s="1" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" t="s">
+        <v>10</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>12</v>
+      </c>
+      <c r="F2" t="s">
+        <v>13</v>
+      </c>
+      <c r="G2" t="s">
+        <v>14</v>
+      </c>
+      <c r="H2" t="s">
+        <v>15</v>
+      </c>
+      <c r="I2" t="s">
+        <v>16</v>
+      </c>
+      <c r="J2" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C3" t="s">
+        <v>10</v>
+      </c>
+      <c r="D3" t="s">
+        <v>11</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" t="s"/>
+      <c r="H3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I3" t="s"/>
+      <c r="J3" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="s">
+        <v>9</v>
+      </c>
+      <c r="C4" t="s">
+        <v>10</v>
+      </c>
+      <c r="D4" t="s">
+        <v>11</v>
+      </c>
+      <c r="E4" t="s">
+        <v>12</v>
+      </c>
+      <c r="F4" t="s">
+        <v>13</v>
+      </c>
+      <c r="G4" t="s">
+        <v>14</v>
+      </c>
+      <c r="H4" t="s">
+        <v>15</v>
+      </c>
+      <c r="I4" t="s">
+        <v>16</v>
+      </c>
+      <c r="J4" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="s">
+        <v>9</v>
+      </c>
+      <c r="C5" t="s">
+        <v>10</v>
+      </c>
+      <c r="D5" t="s">
+        <v>11</v>
+      </c>
+      <c r="E5" t="s">
+        <v>12</v>
+      </c>
+      <c r="F5" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" t="s"/>
+      <c r="H5" t="s">
+        <v>22</v>
+      </c>
+      <c r="I5" t="s"/>
+      <c r="J5" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" t="s">
+        <v>10</v>
+      </c>
+      <c r="D6" t="s">
+        <v>11</v>
+      </c>
+      <c r="E6" t="s">
+        <v>12</v>
+      </c>
+      <c r="F6" t="s">
+        <v>13</v>
+      </c>
+      <c r="G6" t="s">
+        <v>14</v>
+      </c>
+      <c r="H6" t="s">
+        <v>15</v>
+      </c>
+      <c r="I6" t="s">
+        <v>16</v>
+      </c>
+      <c r="J6" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7" t="s">
+        <v>10</v>
+      </c>
+      <c r="D7" t="s">
+        <v>11</v>
+      </c>
+      <c r="E7" t="s">
+        <v>12</v>
+      </c>
+      <c r="F7" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" t="s"/>
+      <c r="H7" t="s">
+        <v>22</v>
+      </c>
+      <c r="I7" t="s"/>
+      <c r="J7" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="s">
+        <v>9</v>
+      </c>
+      <c r="C8" t="s">
+        <v>10</v>
+      </c>
+      <c r="D8" t="s">
+        <v>11</v>
+      </c>
+      <c r="E8" t="s">
+        <v>12</v>
+      </c>
+      <c r="F8" t="s">
+        <v>13</v>
+      </c>
+      <c r="G8" t="s">
+        <v>14</v>
+      </c>
+      <c r="H8" t="s">
+        <v>15</v>
+      </c>
+      <c r="I8" t="s">
+        <v>16</v>
+      </c>
+      <c r="J8" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="s">
+        <v>9</v>
+      </c>
+      <c r="C9" t="s">
+        <v>10</v>
+      </c>
+      <c r="D9" t="s">
+        <v>11</v>
+      </c>
+      <c r="E9" t="s">
+        <v>12</v>
+      </c>
+      <c r="F9" t="s">
+        <v>18</v>
+      </c>
+      <c r="G9" t="s"/>
+      <c r="H9" t="s">
+        <v>27</v>
+      </c>
+      <c r="I9" t="s"/>
+      <c r="J9" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10">
+      <c r="A10" s="1" t="n">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
-        <v>9</v>
-      </c>
-      <c r="D2" t="s">
-        <v>10</v>
-      </c>
-      <c r="E2" t="s">
-        <v>11</v>
-      </c>
-      <c r="F2" t="s">
-        <v>12</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" t="s">
+        <v>10</v>
+      </c>
+      <c r="D10" t="s">
+        <v>11</v>
+      </c>
+      <c r="E10" t="s">
+        <v>12</v>
+      </c>
+      <c r="F10" t="s">
         <v>13</v>
       </c>
-      <c r="H2" t="s">
+      <c r="G10" t="s">
         <v>14</v>
       </c>
-      <c r="I2" t="s"/>
+      <c r="H10" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" t="s">
+        <v>16</v>
+      </c>
+      <c r="J10" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="s">
+        <v>9</v>
+      </c>
+      <c r="C11" t="s">
+        <v>10</v>
+      </c>
+      <c r="D11" t="s">
+        <v>11</v>
+      </c>
+      <c r="E11" t="s">
+        <v>12</v>
+      </c>
+      <c r="F11" t="s">
+        <v>18</v>
+      </c>
+      <c r="G11" t="s"/>
+      <c r="H11" t="s">
+        <v>30</v>
+      </c>
+      <c r="I11" t="s"/>
+      <c r="J11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10">
+      <c r="A12" s="1" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="s">
+        <v>9</v>
+      </c>
+      <c r="C12" t="s">
+        <v>10</v>
+      </c>
+      <c r="D12" t="s">
+        <v>11</v>
+      </c>
+      <c r="E12" t="s">
+        <v>12</v>
+      </c>
+      <c r="F12" t="s">
+        <v>13</v>
+      </c>
+      <c r="G12" t="s">
+        <v>14</v>
+      </c>
+      <c r="H12" t="s">
+        <v>15</v>
+      </c>
+      <c r="I12" t="s">
+        <v>16</v>
+      </c>
+      <c r="J12" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10">
+      <c r="A13" s="1" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="s">
+        <v>9</v>
+      </c>
+      <c r="C13" t="s">
+        <v>10</v>
+      </c>
+      <c r="D13" t="s">
+        <v>11</v>
+      </c>
+      <c r="E13" t="s">
+        <v>12</v>
+      </c>
+      <c r="F13" t="s">
+        <v>18</v>
+      </c>
+      <c r="G13" t="s"/>
+      <c r="H13" t="s">
+        <v>30</v>
+      </c>
+      <c r="I13" t="s"/>
+      <c r="J13" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10">
+      <c r="A14" s="1" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="s">
+        <v>9</v>
+      </c>
+      <c r="C14" t="s">
+        <v>10</v>
+      </c>
+      <c r="D14" t="s">
+        <v>11</v>
+      </c>
+      <c r="E14" t="s">
+        <v>12</v>
+      </c>
+      <c r="F14" t="s">
+        <v>13</v>
+      </c>
+      <c r="G14" t="s">
+        <v>14</v>
+      </c>
+      <c r="H14" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" t="s">
+        <v>16</v>
+      </c>
+      <c r="J14" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10">
+      <c r="A15" s="1" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15" t="s">
+        <v>10</v>
+      </c>
+      <c r="D15" t="s">
+        <v>11</v>
+      </c>
+      <c r="E15" t="s">
+        <v>12</v>
+      </c>
+      <c r="F15" t="s">
+        <v>18</v>
+      </c>
+      <c r="G15" t="s"/>
+      <c r="H15" t="s">
+        <v>19</v>
+      </c>
+      <c r="I15" t="s"/>
+      <c r="J15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10">
+      <c r="A16" s="1" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="s">
+        <v>9</v>
+      </c>
+      <c r="C16" t="s">
+        <v>10</v>
+      </c>
+      <c r="D16" t="s">
+        <v>11</v>
+      </c>
+      <c r="E16" t="s">
+        <v>12</v>
+      </c>
+      <c r="F16" t="s">
+        <v>13</v>
+      </c>
+      <c r="G16" t="s">
+        <v>14</v>
+      </c>
+      <c r="H16" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" t="s">
+        <v>16</v>
+      </c>
+      <c r="J16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10">
+      <c r="A17" s="1" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="s">
+        <v>9</v>
+      </c>
+      <c r="C17" t="s">
+        <v>10</v>
+      </c>
+      <c r="D17" t="s">
+        <v>11</v>
+      </c>
+      <c r="E17" t="s">
+        <v>12</v>
+      </c>
+      <c r="F17" t="s">
+        <v>18</v>
+      </c>
+      <c r="G17" t="s"/>
+      <c r="H17" t="s">
+        <v>19</v>
+      </c>
+      <c r="I17" t="s"/>
+      <c r="J17" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10">
+      <c r="A18" s="1" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="s">
+        <v>9</v>
+      </c>
+      <c r="C18" t="s">
+        <v>10</v>
+      </c>
+      <c r="D18" t="s">
+        <v>11</v>
+      </c>
+      <c r="E18" t="s">
+        <v>12</v>
+      </c>
+      <c r="F18" t="s">
+        <v>13</v>
+      </c>
+      <c r="G18" t="s">
+        <v>14</v>
+      </c>
+      <c r="H18" t="s">
+        <v>15</v>
+      </c>
+      <c r="I18" t="s">
+        <v>16</v>
+      </c>
+      <c r="J18" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
+      <c r="A19" s="1" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="s">
+        <v>9</v>
+      </c>
+      <c r="C19" t="s">
+        <v>10</v>
+      </c>
+      <c r="D19" t="s">
+        <v>11</v>
+      </c>
+      <c r="E19" t="s">
+        <v>12</v>
+      </c>
+      <c r="F19" t="s">
+        <v>18</v>
+      </c>
+      <c r="G19" t="s"/>
+      <c r="H19" t="s">
+        <v>19</v>
+      </c>
+      <c r="I19" t="s"/>
+      <c r="J19" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
+      <c r="A20" s="1" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="s">
+        <v>9</v>
+      </c>
+      <c r="C20" t="s">
+        <v>10</v>
+      </c>
+      <c r="D20" t="s">
+        <v>11</v>
+      </c>
+      <c r="E20" t="s">
+        <v>12</v>
+      </c>
+      <c r="F20" t="s">
+        <v>13</v>
+      </c>
+      <c r="G20" t="s">
+        <v>14</v>
+      </c>
+      <c r="H20" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" t="s">
+        <v>16</v>
+      </c>
+      <c r="J20" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10">
+      <c r="A21" s="1" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="s">
+        <v>9</v>
+      </c>
+      <c r="C21" t="s">
+        <v>10</v>
+      </c>
+      <c r="D21" t="s">
+        <v>11</v>
+      </c>
+      <c r="E21" t="s">
+        <v>12</v>
+      </c>
+      <c r="F21" t="s">
+        <v>18</v>
+      </c>
+      <c r="G21" t="s"/>
+      <c r="H21" t="s">
+        <v>41</v>
+      </c>
+      <c r="I21" t="s"/>
+      <c r="J21" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10">
+      <c r="A22" s="1" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="s">
+        <v>9</v>
+      </c>
+      <c r="C22" t="s">
+        <v>10</v>
+      </c>
+      <c r="D22" t="s">
+        <v>11</v>
+      </c>
+      <c r="E22" t="s">
+        <v>12</v>
+      </c>
+      <c r="F22" t="s">
+        <v>13</v>
+      </c>
+      <c r="G22" t="s">
+        <v>14</v>
+      </c>
+      <c r="H22" t="s">
+        <v>15</v>
+      </c>
+      <c r="I22" t="s">
+        <v>16</v>
+      </c>
+      <c r="J22" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
+      <c r="A23" s="1" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="s">
+        <v>9</v>
+      </c>
+      <c r="C23" t="s">
+        <v>10</v>
+      </c>
+      <c r="D23" t="s">
+        <v>11</v>
+      </c>
+      <c r="E23" t="s">
+        <v>12</v>
+      </c>
+      <c r="F23" t="s">
+        <v>18</v>
+      </c>
+      <c r="G23" t="s"/>
+      <c r="H23" t="s">
+        <v>27</v>
+      </c>
+      <c r="I23" t="s"/>
+      <c r="J23" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
+      <c r="A24" s="1" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="s">
+        <v>9</v>
+      </c>
+      <c r="C24" t="s">
+        <v>10</v>
+      </c>
+      <c r="D24" t="s">
+        <v>11</v>
+      </c>
+      <c r="E24" t="s">
+        <v>12</v>
+      </c>
+      <c r="F24" t="s">
+        <v>13</v>
+      </c>
+      <c r="G24" t="s">
+        <v>14</v>
+      </c>
+      <c r="H24" t="s">
+        <v>15</v>
+      </c>
+      <c r="I24" t="s">
+        <v>16</v>
+      </c>
+      <c r="J24" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>9</v>
+      </c>
+      <c r="C25" t="s">
+        <v>10</v>
+      </c>
+      <c r="D25" t="s">
+        <v>11</v>
+      </c>
+      <c r="E25" t="s">
+        <v>12</v>
+      </c>
+      <c r="F25" t="s">
+        <v>18</v>
+      </c>
+      <c r="G25" t="s"/>
+      <c r="H25" t="s">
+        <v>30</v>
+      </c>
+      <c r="I25" t="s"/>
+      <c r="J25" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10">
+      <c r="A26" s="1" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="s">
+        <v>9</v>
+      </c>
+      <c r="C26" t="s">
+        <v>10</v>
+      </c>
+      <c r="D26" t="s">
+        <v>11</v>
+      </c>
+      <c r="E26" t="s">
+        <v>12</v>
+      </c>
+      <c r="F26" t="s">
+        <v>13</v>
+      </c>
+      <c r="G26" t="s">
+        <v>14</v>
+      </c>
+      <c r="H26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I26" t="s">
+        <v>16</v>
+      </c>
+      <c r="J26" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10">
+      <c r="A27" s="1" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="s">
+        <v>9</v>
+      </c>
+      <c r="C27" t="s">
+        <v>10</v>
+      </c>
+      <c r="D27" t="s">
+        <v>11</v>
+      </c>
+      <c r="E27" t="s">
+        <v>12</v>
+      </c>
+      <c r="F27" t="s">
+        <v>18</v>
+      </c>
+      <c r="G27" t="s"/>
+      <c r="H27" t="s">
+        <v>30</v>
+      </c>
+      <c r="I27" t="s"/>
+      <c r="J27" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10">
+      <c r="A28" s="1" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="s">
+        <v>9</v>
+      </c>
+      <c r="C28" t="s">
+        <v>10</v>
+      </c>
+      <c r="D28" t="s">
+        <v>11</v>
+      </c>
+      <c r="E28" t="s">
+        <v>12</v>
+      </c>
+      <c r="F28" t="s">
+        <v>13</v>
+      </c>
+      <c r="G28" t="s">
+        <v>14</v>
+      </c>
+      <c r="H28" t="s">
+        <v>15</v>
+      </c>
+      <c r="I28" t="s">
+        <v>16</v>
+      </c>
+      <c r="J28" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10">
+      <c r="A29" s="1" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="s">
+        <v>9</v>
+      </c>
+      <c r="C29" t="s">
+        <v>10</v>
+      </c>
+      <c r="D29" t="s">
+        <v>11</v>
+      </c>
+      <c r="E29" t="s">
+        <v>12</v>
+      </c>
+      <c r="F29" t="s">
+        <v>18</v>
+      </c>
+      <c r="G29" t="s"/>
+      <c r="H29" t="s">
+        <v>30</v>
+      </c>
+      <c r="I29" t="s"/>
+      <c r="J29" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10">
+      <c r="A30" s="1" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="s">
+        <v>9</v>
+      </c>
+      <c r="C30" t="s">
+        <v>10</v>
+      </c>
+      <c r="D30" t="s">
+        <v>11</v>
+      </c>
+      <c r="E30" t="s">
+        <v>12</v>
+      </c>
+      <c r="F30" t="s">
+        <v>13</v>
+      </c>
+      <c r="G30" t="s">
+        <v>14</v>
+      </c>
+      <c r="H30" t="s">
+        <v>15</v>
+      </c>
+      <c r="I30" t="s">
+        <v>16</v>
+      </c>
+      <c r="J30" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10">
+      <c r="A31" s="1" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="s">
+        <v>9</v>
+      </c>
+      <c r="C31" t="s">
+        <v>10</v>
+      </c>
+      <c r="D31" t="s">
+        <v>11</v>
+      </c>
+      <c r="E31" t="s">
+        <v>12</v>
+      </c>
+      <c r="F31" t="s">
+        <v>18</v>
+      </c>
+      <c r="G31" t="s"/>
+      <c r="H31" t="s">
+        <v>30</v>
+      </c>
+      <c r="I31" t="s"/>
+      <c r="J31" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10">
+      <c r="A32" s="1" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="s">
+        <v>9</v>
+      </c>
+      <c r="C32" t="s">
+        <v>10</v>
+      </c>
+      <c r="D32" t="s">
+        <v>11</v>
+      </c>
+      <c r="E32" t="s">
+        <v>12</v>
+      </c>
+      <c r="F32" t="s">
+        <v>13</v>
+      </c>
+      <c r="G32" t="s">
+        <v>14</v>
+      </c>
+      <c r="H32" t="s">
+        <v>15</v>
+      </c>
+      <c r="I32" t="s">
+        <v>16</v>
+      </c>
+      <c r="J32" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10">
+      <c r="A33" s="1" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="s">
+        <v>9</v>
+      </c>
+      <c r="C33" t="s">
+        <v>10</v>
+      </c>
+      <c r="D33" t="s">
+        <v>11</v>
+      </c>
+      <c r="E33" t="s">
+        <v>12</v>
+      </c>
+      <c r="F33" t="s">
+        <v>18</v>
+      </c>
+      <c r="G33" t="s"/>
+      <c r="H33" t="s">
+        <v>19</v>
+      </c>
+      <c r="I33" t="s"/>
+      <c r="J33" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10">
+      <c r="A34" s="1" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="s">
+        <v>9</v>
+      </c>
+      <c r="C34" t="s">
+        <v>10</v>
+      </c>
+      <c r="D34" t="s">
+        <v>11</v>
+      </c>
+      <c r="E34" t="s">
+        <v>12</v>
+      </c>
+      <c r="F34" t="s">
+        <v>13</v>
+      </c>
+      <c r="G34" t="s">
+        <v>14</v>
+      </c>
+      <c r="H34" t="s">
+        <v>15</v>
+      </c>
+      <c r="I34" t="s">
+        <v>16</v>
+      </c>
+      <c r="J34" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10">
+      <c r="A35" s="1" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="s">
+        <v>9</v>
+      </c>
+      <c r="C35" t="s">
+        <v>10</v>
+      </c>
+      <c r="D35" t="s">
+        <v>11</v>
+      </c>
+      <c r="E35" t="s">
+        <v>12</v>
+      </c>
+      <c r="F35" t="s">
+        <v>18</v>
+      </c>
+      <c r="G35" t="s"/>
+      <c r="H35" t="s">
+        <v>41</v>
+      </c>
+      <c r="I35" t="s"/>
+      <c r="J35" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10">
+      <c r="A36" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="s">
+        <v>9</v>
+      </c>
+      <c r="C36" t="s">
+        <v>10</v>
+      </c>
+      <c r="D36" t="s">
+        <v>11</v>
+      </c>
+      <c r="E36" t="s">
+        <v>12</v>
+      </c>
+      <c r="F36" t="s">
+        <v>13</v>
+      </c>
+      <c r="G36" t="s">
+        <v>14</v>
+      </c>
+      <c r="H36" t="s">
+        <v>15</v>
+      </c>
+      <c r="I36" t="s">
+        <v>16</v>
+      </c>
+      <c r="J36" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10">
+      <c r="A37" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="s">
+        <v>9</v>
+      </c>
+      <c r="C37" t="s">
+        <v>10</v>
+      </c>
+      <c r="D37" t="s">
+        <v>11</v>
+      </c>
+      <c r="E37" t="s">
+        <v>12</v>
+      </c>
+      <c r="F37" t="s">
+        <v>18</v>
+      </c>
+      <c r="G37" t="s"/>
+      <c r="H37" t="s">
+        <v>41</v>
+      </c>
+      <c r="I37" t="s"/>
+      <c r="J37" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10">
+      <c r="A38" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="s">
+        <v>9</v>
+      </c>
+      <c r="C38" t="s">
+        <v>10</v>
+      </c>
+      <c r="D38" t="s">
+        <v>11</v>
+      </c>
+      <c r="E38" t="s">
+        <v>12</v>
+      </c>
+      <c r="F38" t="s">
+        <v>13</v>
+      </c>
+      <c r="G38" t="s">
+        <v>14</v>
+      </c>
+      <c r="H38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J38" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10">
+      <c r="A39" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="s">
+        <v>9</v>
+      </c>
+      <c r="C39" t="s">
+        <v>10</v>
+      </c>
+      <c r="D39" t="s">
+        <v>11</v>
+      </c>
+      <c r="E39" t="s">
+        <v>12</v>
+      </c>
+      <c r="F39" t="s">
+        <v>18</v>
+      </c>
+      <c r="G39" t="s"/>
+      <c r="H39" t="s">
+        <v>19</v>
+      </c>
+      <c r="I39" t="s"/>
+      <c r="J39" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10">
+      <c r="A40" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="s">
+        <v>9</v>
+      </c>
+      <c r="C40" t="s">
+        <v>10</v>
+      </c>
+      <c r="D40" t="s">
+        <v>11</v>
+      </c>
+      <c r="E40" t="s">
+        <v>12</v>
+      </c>
+      <c r="F40" t="s">
+        <v>13</v>
+      </c>
+      <c r="G40" t="s">
+        <v>14</v>
+      </c>
+      <c r="H40" t="s">
+        <v>15</v>
+      </c>
+      <c r="I40" t="s">
+        <v>16</v>
+      </c>
+      <c r="J40" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10">
+      <c r="A41" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="s">
+        <v>9</v>
+      </c>
+      <c r="C41" t="s">
+        <v>10</v>
+      </c>
+      <c r="D41" t="s">
+        <v>11</v>
+      </c>
+      <c r="E41" t="s">
+        <v>12</v>
+      </c>
+      <c r="F41" t="s">
+        <v>18</v>
+      </c>
+      <c r="G41" t="s"/>
+      <c r="H41" t="s">
+        <v>19</v>
+      </c>
+      <c r="I41" t="s"/>
+      <c r="J41" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10">
+      <c r="A42" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="s">
+        <v>9</v>
+      </c>
+      <c r="C42" t="s">
+        <v>10</v>
+      </c>
+      <c r="D42" t="s">
+        <v>11</v>
+      </c>
+      <c r="E42" t="s">
+        <v>12</v>
+      </c>
+      <c r="F42" t="s">
+        <v>13</v>
+      </c>
+      <c r="G42" t="s">
+        <v>14</v>
+      </c>
+      <c r="H42" t="s">
+        <v>15</v>
+      </c>
+      <c r="I42" t="s">
+        <v>16</v>
+      </c>
+      <c r="J42" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10">
+      <c r="A43" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="s">
+        <v>9</v>
+      </c>
+      <c r="C43" t="s">
+        <v>10</v>
+      </c>
+      <c r="D43" t="s">
+        <v>11</v>
+      </c>
+      <c r="E43" t="s">
+        <v>12</v>
+      </c>
+      <c r="F43" t="s">
+        <v>18</v>
+      </c>
+      <c r="G43" t="s"/>
+      <c r="H43" t="s">
+        <v>19</v>
+      </c>
+      <c r="I43" t="s"/>
+      <c r="J43" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10">
+      <c r="A44" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="s">
+        <v>9</v>
+      </c>
+      <c r="C44" t="s">
+        <v>10</v>
+      </c>
+      <c r="D44" t="s">
+        <v>11</v>
+      </c>
+      <c r="E44" t="s">
+        <v>12</v>
+      </c>
+      <c r="F44" t="s">
+        <v>18</v>
+      </c>
+      <c r="G44" t="s"/>
+      <c r="H44" t="s">
+        <v>41</v>
+      </c>
+      <c r="I44" t="s"/>
+      <c r="J44" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10">
+      <c r="A45" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="s">
+        <v>9</v>
+      </c>
+      <c r="C45" t="s">
+        <v>10</v>
+      </c>
+      <c r="D45" t="s">
+        <v>11</v>
+      </c>
+      <c r="E45" t="s">
+        <v>12</v>
+      </c>
+      <c r="F45" t="s">
+        <v>13</v>
+      </c>
+      <c r="G45" t="s">
+        <v>14</v>
+      </c>
+      <c r="H45" t="s">
+        <v>15</v>
+      </c>
+      <c r="I45" t="s">
+        <v>16</v>
+      </c>
+      <c r="J45" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10">
+      <c r="A46" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="s">
+        <v>9</v>
+      </c>
+      <c r="C46" t="s">
+        <v>10</v>
+      </c>
+      <c r="D46" t="s">
+        <v>11</v>
+      </c>
+      <c r="E46" t="s">
+        <v>12</v>
+      </c>
+      <c r="F46" t="s">
+        <v>18</v>
+      </c>
+      <c r="G46" t="s"/>
+      <c r="H46" t="s">
+        <v>22</v>
+      </c>
+      <c r="I46" t="s"/>
+      <c r="J46" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10">
+      <c r="A47" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="s">
+        <v>9</v>
+      </c>
+      <c r="C47" t="s">
+        <v>10</v>
+      </c>
+      <c r="D47" t="s">
+        <v>11</v>
+      </c>
+      <c r="E47" t="s">
+        <v>12</v>
+      </c>
+      <c r="F47" t="s">
+        <v>18</v>
+      </c>
+      <c r="G47" t="s"/>
+      <c r="H47" t="s">
+        <v>41</v>
+      </c>
+      <c r="I47" t="s"/>
+      <c r="J47" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10">
+      <c r="A48" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="s">
+        <v>9</v>
+      </c>
+      <c r="C48" t="s">
+        <v>10</v>
+      </c>
+      <c r="D48" t="s">
+        <v>11</v>
+      </c>
+      <c r="E48" t="s">
+        <v>12</v>
+      </c>
+      <c r="F48" t="s">
+        <v>18</v>
+      </c>
+      <c r="G48" t="s"/>
+      <c r="H48" t="s">
+        <v>22</v>
+      </c>
+      <c r="I48" t="s"/>
+      <c r="J48" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10">
+      <c r="A49" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="s">
+        <v>9</v>
+      </c>
+      <c r="C49" t="s">
+        <v>10</v>
+      </c>
+      <c r="D49" t="s">
+        <v>11</v>
+      </c>
+      <c r="E49" t="s">
+        <v>12</v>
+      </c>
+      <c r="F49" t="s">
+        <v>18</v>
+      </c>
+      <c r="G49" t="s"/>
+      <c r="H49" t="s">
+        <v>27</v>
+      </c>
+      <c r="I49" t="s"/>
+      <c r="J49" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10">
+      <c r="A50" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="s">
+        <v>9</v>
+      </c>
+      <c r="C50" t="s">
+        <v>10</v>
+      </c>
+      <c r="D50" t="s">
+        <v>11</v>
+      </c>
+      <c r="E50" t="s">
+        <v>12</v>
+      </c>
+      <c r="F50" t="s">
+        <v>18</v>
+      </c>
+      <c r="G50" t="s"/>
+      <c r="H50" t="s">
+        <v>22</v>
+      </c>
+      <c r="I50" t="s"/>
+      <c r="J50" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10">
+      <c r="A51" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="s">
+        <v>9</v>
+      </c>
+      <c r="C51" t="s">
+        <v>10</v>
+      </c>
+      <c r="D51" t="s">
+        <v>11</v>
+      </c>
+      <c r="E51" t="s">
+        <v>12</v>
+      </c>
+      <c r="F51" t="s">
+        <v>18</v>
+      </c>
+      <c r="G51" t="s"/>
+      <c r="H51" t="s">
+        <v>41</v>
+      </c>
+      <c r="I51" t="s"/>
+      <c r="J51" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10">
+      <c r="A52" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="s">
+        <v>9</v>
+      </c>
+      <c r="C52" t="s">
+        <v>10</v>
+      </c>
+      <c r="D52" t="s">
+        <v>11</v>
+      </c>
+      <c r="E52" t="s">
+        <v>12</v>
+      </c>
+      <c r="F52" t="s">
+        <v>18</v>
+      </c>
+      <c r="G52" t="s"/>
+      <c r="H52" t="s">
+        <v>22</v>
+      </c>
+      <c r="I52" t="s"/>
+      <c r="J52" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10">
+      <c r="A53" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="s">
+        <v>9</v>
+      </c>
+      <c r="C53" t="s">
+        <v>10</v>
+      </c>
+      <c r="D53" t="s">
+        <v>11</v>
+      </c>
+      <c r="E53" t="s">
+        <v>12</v>
+      </c>
+      <c r="F53" t="s">
+        <v>18</v>
+      </c>
+      <c r="G53" t="s"/>
+      <c r="H53" t="s">
+        <v>41</v>
+      </c>
+      <c r="I53" t="s"/>
+      <c r="J53" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10">
+      <c r="A54" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="s">
+        <v>9</v>
+      </c>
+      <c r="C54" t="s">
+        <v>10</v>
+      </c>
+      <c r="D54" t="s">
+        <v>11</v>
+      </c>
+      <c r="E54" t="s">
+        <v>12</v>
+      </c>
+      <c r="F54" t="s">
+        <v>18</v>
+      </c>
+      <c r="G54" t="s"/>
+      <c r="H54" t="s">
+        <v>22</v>
+      </c>
+      <c r="I54" t="s"/>
+      <c r="J54" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10">
+      <c r="A55" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="s">
+        <v>9</v>
+      </c>
+      <c r="C55" t="s">
+        <v>10</v>
+      </c>
+      <c r="D55" t="s">
+        <v>11</v>
+      </c>
+      <c r="E55" t="s">
+        <v>12</v>
+      </c>
+      <c r="F55" t="s">
+        <v>18</v>
+      </c>
+      <c r="G55" t="s"/>
+      <c r="H55" t="s">
+        <v>30</v>
+      </c>
+      <c r="I55" t="s"/>
+      <c r="J55" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10">
+      <c r="A56" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="s">
+        <v>9</v>
+      </c>
+      <c r="C56" t="s">
+        <v>10</v>
+      </c>
+      <c r="D56" t="s">
+        <v>11</v>
+      </c>
+      <c r="E56" t="s">
+        <v>12</v>
+      </c>
+      <c r="F56" t="s">
+        <v>13</v>
+      </c>
+      <c r="G56" t="s">
+        <v>14</v>
+      </c>
+      <c r="H56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I56" t="s">
+        <v>16</v>
+      </c>
+      <c r="J56" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10">
+      <c r="A57" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="s">
+        <v>9</v>
+      </c>
+      <c r="C57" t="s">
+        <v>10</v>
+      </c>
+      <c r="D57" t="s">
+        <v>11</v>
+      </c>
+      <c r="E57" t="s">
+        <v>12</v>
+      </c>
+      <c r="F57" t="s">
+        <v>18</v>
+      </c>
+      <c r="G57" t="s"/>
+      <c r="H57" t="s">
+        <v>30</v>
+      </c>
+      <c r="I57" t="s"/>
+      <c r="J57" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10">
+      <c r="A58" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="s">
+        <v>9</v>
+      </c>
+      <c r="C58" t="s">
+        <v>10</v>
+      </c>
+      <c r="D58" t="s">
+        <v>11</v>
+      </c>
+      <c r="E58" t="s">
+        <v>12</v>
+      </c>
+      <c r="F58" t="s">
+        <v>18</v>
+      </c>
+      <c r="G58" t="s"/>
+      <c r="H58" t="s">
+        <v>22</v>
+      </c>
+      <c r="I58" t="s"/>
+      <c r="J58" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10">
+      <c r="A59" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="s">
+        <v>9</v>
+      </c>
+      <c r="C59" t="s">
+        <v>10</v>
+      </c>
+      <c r="D59" t="s">
+        <v>11</v>
+      </c>
+      <c r="E59" t="s">
+        <v>12</v>
+      </c>
+      <c r="F59" t="s">
+        <v>18</v>
+      </c>
+      <c r="G59" t="s"/>
+      <c r="H59" t="s">
+        <v>19</v>
+      </c>
+      <c r="I59" t="s"/>
+      <c r="J59" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10">
+      <c r="A60" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="s">
+        <v>9</v>
+      </c>
+      <c r="C60" t="s">
+        <v>10</v>
+      </c>
+      <c r="D60" t="s">
+        <v>11</v>
+      </c>
+      <c r="E60" t="s">
+        <v>12</v>
+      </c>
+      <c r="F60" t="s">
+        <v>13</v>
+      </c>
+      <c r="G60" t="s">
+        <v>14</v>
+      </c>
+      <c r="H60" t="s">
+        <v>15</v>
+      </c>
+      <c r="I60" t="s">
+        <v>16</v>
+      </c>
+      <c r="J60" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10">
+      <c r="A61" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="s">
+        <v>9</v>
+      </c>
+      <c r="C61" t="s">
+        <v>10</v>
+      </c>
+      <c r="D61" t="s">
+        <v>11</v>
+      </c>
+      <c r="E61" t="s">
+        <v>12</v>
+      </c>
+      <c r="F61" t="s">
+        <v>82</v>
+      </c>
+      <c r="G61" t="s">
+        <v>83</v>
+      </c>
+      <c r="H61" t="s">
+        <v>84</v>
+      </c>
+      <c r="I61" t="s">
+        <v>85</v>
+      </c>
+      <c r="J61" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10">
+      <c r="A62" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="s">
+        <v>9</v>
+      </c>
+      <c r="C62" t="s">
+        <v>10</v>
+      </c>
+      <c r="D62" t="s">
+        <v>11</v>
+      </c>
+      <c r="E62" t="s">
+        <v>12</v>
+      </c>
+      <c r="F62" t="s">
+        <v>18</v>
+      </c>
+      <c r="G62" t="s"/>
+      <c r="H62" t="s">
+        <v>27</v>
+      </c>
+      <c r="I62" t="s"/>
+      <c r="J62" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10">
+      <c r="A63" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="s">
+        <v>9</v>
+      </c>
+      <c r="C63" t="s">
+        <v>10</v>
+      </c>
+      <c r="D63" t="s">
+        <v>11</v>
+      </c>
+      <c r="E63" t="s">
+        <v>12</v>
+      </c>
+      <c r="F63" t="s">
+        <v>82</v>
+      </c>
+      <c r="G63" t="s">
+        <v>83</v>
+      </c>
+      <c r="H63" t="s">
+        <v>84</v>
+      </c>
+      <c r="I63" t="s">
+        <v>85</v>
+      </c>
+      <c r="J63" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10">
+      <c r="A64" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="s">
+        <v>9</v>
+      </c>
+      <c r="C64" t="s">
+        <v>10</v>
+      </c>
+      <c r="D64" t="s">
+        <v>11</v>
+      </c>
+      <c r="E64" t="s">
+        <v>12</v>
+      </c>
+      <c r="F64" t="s">
+        <v>18</v>
+      </c>
+      <c r="G64" t="s"/>
+      <c r="H64" t="s">
+        <v>19</v>
+      </c>
+      <c r="I64" t="s"/>
+      <c r="J64" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10">
+      <c r="A65" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="s">
+        <v>9</v>
+      </c>
+      <c r="C65" t="s">
+        <v>10</v>
+      </c>
+      <c r="D65" t="s">
+        <v>11</v>
+      </c>
+      <c r="E65" t="s">
+        <v>12</v>
+      </c>
+      <c r="F65" t="s">
+        <v>82</v>
+      </c>
+      <c r="G65" t="s">
+        <v>83</v>
+      </c>
+      <c r="H65" t="s">
+        <v>84</v>
+      </c>
+      <c r="I65" t="s">
+        <v>85</v>
+      </c>
+      <c r="J65" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10">
+      <c r="A66" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="s">
+        <v>9</v>
+      </c>
+      <c r="C66" t="s">
+        <v>10</v>
+      </c>
+      <c r="D66" t="s">
+        <v>11</v>
+      </c>
+      <c r="E66" t="s">
+        <v>12</v>
+      </c>
+      <c r="F66" t="s">
+        <v>18</v>
+      </c>
+      <c r="G66" t="s"/>
+      <c r="H66" t="s">
+        <v>19</v>
+      </c>
+      <c r="I66" t="s"/>
+      <c r="J66" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10">
+      <c r="A67" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="s">
+        <v>9</v>
+      </c>
+      <c r="C67" t="s">
+        <v>10</v>
+      </c>
+      <c r="D67" t="s">
+        <v>11</v>
+      </c>
+      <c r="E67" t="s">
+        <v>12</v>
+      </c>
+      <c r="F67" t="s">
+        <v>82</v>
+      </c>
+      <c r="G67" t="s">
+        <v>83</v>
+      </c>
+      <c r="H67" t="s">
+        <v>84</v>
+      </c>
+      <c r="I67" t="s">
+        <v>85</v>
+      </c>
+      <c r="J67" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10">
+      <c r="A68" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="s">
+        <v>9</v>
+      </c>
+      <c r="C68" t="s">
+        <v>10</v>
+      </c>
+      <c r="D68" t="s">
+        <v>11</v>
+      </c>
+      <c r="E68" t="s">
+        <v>12</v>
+      </c>
+      <c r="F68" t="s">
+        <v>18</v>
+      </c>
+      <c r="G68" t="s"/>
+      <c r="H68" t="s">
+        <v>19</v>
+      </c>
+      <c r="I68" t="s"/>
+      <c r="J68" t="s">
+        <v>93</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10">
+      <c r="A69" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="s">
+        <v>9</v>
+      </c>
+      <c r="C69" t="s">
+        <v>10</v>
+      </c>
+      <c r="D69" t="s">
+        <v>11</v>
+      </c>
+      <c r="E69" t="s">
+        <v>12</v>
+      </c>
+      <c r="F69" t="s">
+        <v>82</v>
+      </c>
+      <c r="G69" t="s">
+        <v>83</v>
+      </c>
+      <c r="H69" t="s">
+        <v>84</v>
+      </c>
+      <c r="I69" t="s">
+        <v>85</v>
+      </c>
+      <c r="J69" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10">
+      <c r="A70" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="s">
+        <v>9</v>
+      </c>
+      <c r="C70" t="s">
+        <v>10</v>
+      </c>
+      <c r="D70" t="s">
+        <v>11</v>
+      </c>
+      <c r="E70" t="s">
+        <v>12</v>
+      </c>
+      <c r="F70" t="s">
+        <v>18</v>
+      </c>
+      <c r="G70" t="s"/>
+      <c r="H70" t="s">
+        <v>30</v>
+      </c>
+      <c r="I70" t="s"/>
+      <c r="J70" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10">
+      <c r="A71" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="s">
+        <v>9</v>
+      </c>
+      <c r="C71" t="s">
+        <v>10</v>
+      </c>
+      <c r="D71" t="s">
+        <v>11</v>
+      </c>
+      <c r="E71" t="s">
+        <v>12</v>
+      </c>
+      <c r="F71" t="s">
+        <v>82</v>
+      </c>
+      <c r="G71" t="s">
+        <v>83</v>
+      </c>
+      <c r="H71" t="s">
+        <v>84</v>
+      </c>
+      <c r="I71" t="s">
+        <v>85</v>
+      </c>
+      <c r="J71" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10">
+      <c r="A72" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="s">
+        <v>9</v>
+      </c>
+      <c r="C72" t="s">
+        <v>10</v>
+      </c>
+      <c r="D72" t="s">
+        <v>11</v>
+      </c>
+      <c r="E72" t="s">
+        <v>12</v>
+      </c>
+      <c r="F72" t="s">
+        <v>18</v>
+      </c>
+      <c r="G72" t="s"/>
+      <c r="H72" t="s">
+        <v>30</v>
+      </c>
+      <c r="I72" t="s"/>
+      <c r="J72" t="s">
+        <v>97</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10">
+      <c r="A73" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="s">
+        <v>9</v>
+      </c>
+      <c r="C73" t="s">
+        <v>10</v>
+      </c>
+      <c r="D73" t="s">
+        <v>11</v>
+      </c>
+      <c r="E73" t="s">
+        <v>12</v>
+      </c>
+      <c r="F73" t="s">
+        <v>82</v>
+      </c>
+      <c r="G73" t="s">
+        <v>83</v>
+      </c>
+      <c r="H73" t="s">
+        <v>84</v>
+      </c>
+      <c r="I73" t="s">
+        <v>85</v>
+      </c>
+      <c r="J73" t="s">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10">
+      <c r="A74" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="s">
+        <v>9</v>
+      </c>
+      <c r="C74" t="s">
+        <v>10</v>
+      </c>
+      <c r="D74" t="s">
+        <v>11</v>
+      </c>
+      <c r="E74" t="s">
+        <v>12</v>
+      </c>
+      <c r="F74" t="s">
+        <v>18</v>
+      </c>
+      <c r="G74" t="s"/>
+      <c r="H74" t="s">
+        <v>30</v>
+      </c>
+      <c r="I74" t="s"/>
+      <c r="J74" t="s">
+        <v>99</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10">
+      <c r="A75" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="s">
+        <v>9</v>
+      </c>
+      <c r="C75" t="s">
+        <v>10</v>
+      </c>
+      <c r="D75" t="s">
+        <v>11</v>
+      </c>
+      <c r="E75" t="s">
+        <v>12</v>
+      </c>
+      <c r="F75" t="s">
+        <v>82</v>
+      </c>
+      <c r="G75" t="s">
+        <v>83</v>
+      </c>
+      <c r="H75" t="s">
+        <v>84</v>
+      </c>
+      <c r="I75" t="s">
+        <v>85</v>
+      </c>
+      <c r="J75" t="s">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10">
+      <c r="A76" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="s">
+        <v>9</v>
+      </c>
+      <c r="C76" t="s">
+        <v>10</v>
+      </c>
+      <c r="D76" t="s">
+        <v>11</v>
+      </c>
+      <c r="E76" t="s">
+        <v>12</v>
+      </c>
+      <c r="F76" t="s">
+        <v>18</v>
+      </c>
+      <c r="G76" t="s"/>
+      <c r="H76" t="s">
+        <v>30</v>
+      </c>
+      <c r="I76" t="s"/>
+      <c r="J76" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10">
+      <c r="A77" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="s">
+        <v>9</v>
+      </c>
+      <c r="C77" t="s">
+        <v>10</v>
+      </c>
+      <c r="D77" t="s">
+        <v>11</v>
+      </c>
+      <c r="E77" t="s">
+        <v>12</v>
+      </c>
+      <c r="F77" t="s">
+        <v>13</v>
+      </c>
+      <c r="G77" t="s">
+        <v>14</v>
+      </c>
+      <c r="H77" t="s">
+        <v>15</v>
+      </c>
+      <c r="I77" t="s">
+        <v>16</v>
+      </c>
+      <c r="J77" t="s">
+        <v>102</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10">
+      <c r="A78" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="s">
+        <v>9</v>
+      </c>
+      <c r="C78" t="s">
+        <v>10</v>
+      </c>
+      <c r="D78" t="s">
+        <v>11</v>
+      </c>
+      <c r="E78" t="s">
+        <v>12</v>
+      </c>
+      <c r="F78" t="s">
+        <v>82</v>
+      </c>
+      <c r="G78" t="s">
+        <v>83</v>
+      </c>
+      <c r="H78" t="s">
+        <v>84</v>
+      </c>
+      <c r="I78" t="s">
+        <v>85</v>
+      </c>
+      <c r="J78" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10">
+      <c r="A79" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="s">
+        <v>9</v>
+      </c>
+      <c r="C79" t="s">
+        <v>10</v>
+      </c>
+      <c r="D79" t="s">
+        <v>11</v>
+      </c>
+      <c r="E79" t="s">
+        <v>12</v>
+      </c>
+      <c r="F79" t="s">
+        <v>13</v>
+      </c>
+      <c r="G79" t="s">
+        <v>14</v>
+      </c>
+      <c r="H79" t="s">
+        <v>15</v>
+      </c>
+      <c r="I79" t="s">
+        <v>16</v>
+      </c>
+      <c r="J79" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10">
+      <c r="A80" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="s">
+        <v>9</v>
+      </c>
+      <c r="C80" t="s">
+        <v>10</v>
+      </c>
+      <c r="D80" t="s">
+        <v>11</v>
+      </c>
+      <c r="E80" t="s">
+        <v>12</v>
+      </c>
+      <c r="F80" t="s">
+        <v>18</v>
+      </c>
+      <c r="G80" t="s"/>
+      <c r="H80" t="s">
+        <v>105</v>
+      </c>
+      <c r="I80" t="s"/>
+      <c r="J80" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10">
+      <c r="A81" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="s">
+        <v>9</v>
+      </c>
+      <c r="C81" t="s">
+        <v>10</v>
+      </c>
+      <c r="D81" t="s">
+        <v>11</v>
+      </c>
+      <c r="E81" t="s">
+        <v>12</v>
+      </c>
+      <c r="F81" t="s">
+        <v>18</v>
+      </c>
+      <c r="G81" t="s"/>
+      <c r="H81" t="s">
+        <v>41</v>
+      </c>
+      <c r="I81" t="s"/>
+      <c r="J81" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10">
+      <c r="A82" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="s">
+        <v>9</v>
+      </c>
+      <c r="C82" t="s">
+        <v>10</v>
+      </c>
+      <c r="D82" t="s">
+        <v>11</v>
+      </c>
+      <c r="E82" t="s">
+        <v>12</v>
+      </c>
+      <c r="F82" t="s">
+        <v>18</v>
+      </c>
+      <c r="G82" t="s"/>
+      <c r="H82" t="s">
+        <v>105</v>
+      </c>
+      <c r="I82" t="s"/>
+      <c r="J82" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10">
+      <c r="A83" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="s">
+        <v>9</v>
+      </c>
+      <c r="C83" t="s">
+        <v>10</v>
+      </c>
+      <c r="D83" t="s">
+        <v>11</v>
+      </c>
+      <c r="E83" t="s">
+        <v>12</v>
+      </c>
+      <c r="F83" t="s">
+        <v>18</v>
+      </c>
+      <c r="G83" t="s"/>
+      <c r="H83" t="s">
+        <v>19</v>
+      </c>
+      <c r="I83" t="s"/>
+      <c r="J83" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10">
+      <c r="A84" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="s">
+        <v>9</v>
+      </c>
+      <c r="C84" t="s">
+        <v>10</v>
+      </c>
+      <c r="D84" t="s">
+        <v>11</v>
+      </c>
+      <c r="E84" t="s">
+        <v>12</v>
+      </c>
+      <c r="F84" t="s">
+        <v>18</v>
+      </c>
+      <c r="G84" t="s"/>
+      <c r="H84" t="s">
+        <v>30</v>
+      </c>
+      <c r="I84" t="s"/>
+      <c r="J84" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10">
+      <c r="A85" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="s">
+        <v>9</v>
+      </c>
+      <c r="C85" t="s">
+        <v>10</v>
+      </c>
+      <c r="D85" t="s">
+        <v>11</v>
+      </c>
+      <c r="E85" t="s">
+        <v>12</v>
+      </c>
+      <c r="F85" t="s">
+        <v>18</v>
+      </c>
+      <c r="G85" t="s"/>
+      <c r="H85" t="s">
+        <v>105</v>
+      </c>
+      <c r="I85" t="s"/>
+      <c r="J85" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10">
+      <c r="A86" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="s">
+        <v>9</v>
+      </c>
+      <c r="C86" t="s">
+        <v>10</v>
+      </c>
+      <c r="D86" t="s">
+        <v>11</v>
+      </c>
+      <c r="E86" t="s">
+        <v>12</v>
+      </c>
+      <c r="F86" t="s">
+        <v>18</v>
+      </c>
+      <c r="G86" t="s"/>
+      <c r="H86" t="s">
+        <v>30</v>
+      </c>
+      <c r="I86" t="s"/>
+      <c r="J86" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10">
+      <c r="A87" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="s">
+        <v>9</v>
+      </c>
+      <c r="C87" t="s">
+        <v>10</v>
+      </c>
+      <c r="D87" t="s">
+        <v>11</v>
+      </c>
+      <c r="E87" t="s">
+        <v>12</v>
+      </c>
+      <c r="F87" t="s">
+        <v>13</v>
+      </c>
+      <c r="G87" t="s">
+        <v>14</v>
+      </c>
+      <c r="H87" t="s">
+        <v>15</v>
+      </c>
+      <c r="I87" t="s">
+        <v>16</v>
+      </c>
+      <c r="J87" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10">
+      <c r="A88" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="s">
+        <v>9</v>
+      </c>
+      <c r="C88" t="s">
+        <v>10</v>
+      </c>
+      <c r="D88" t="s">
+        <v>11</v>
+      </c>
+      <c r="E88" t="s">
+        <v>12</v>
+      </c>
+      <c r="F88" t="s">
+        <v>18</v>
+      </c>
+      <c r="G88" t="s"/>
+      <c r="H88" t="s">
+        <v>27</v>
+      </c>
+      <c r="I88" t="s"/>
+      <c r="J88" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10">
+      <c r="A89" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="s">
+        <v>9</v>
+      </c>
+      <c r="C89" t="s">
+        <v>10</v>
+      </c>
+      <c r="D89" t="s">
+        <v>11</v>
+      </c>
+      <c r="E89" t="s">
+        <v>12</v>
+      </c>
+      <c r="F89" t="s">
+        <v>13</v>
+      </c>
+      <c r="G89" t="s">
+        <v>14</v>
+      </c>
+      <c r="H89" t="s">
+        <v>15</v>
+      </c>
+      <c r="I89" t="s">
+        <v>16</v>
+      </c>
+      <c r="J89" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10">
+      <c r="A90" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="s">
+        <v>9</v>
+      </c>
+      <c r="C90" t="s">
+        <v>10</v>
+      </c>
+      <c r="D90" t="s">
+        <v>11</v>
+      </c>
+      <c r="E90" t="s">
+        <v>12</v>
+      </c>
+      <c r="F90" t="s">
+        <v>18</v>
+      </c>
+      <c r="G90" t="s"/>
+      <c r="H90" t="s">
+        <v>27</v>
+      </c>
+      <c r="I90" t="s"/>
+      <c r="J90" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10">
+      <c r="A91" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="s">
+        <v>9</v>
+      </c>
+      <c r="C91" t="s">
+        <v>10</v>
+      </c>
+      <c r="D91" t="s">
+        <v>11</v>
+      </c>
+      <c r="E91" t="s">
+        <v>12</v>
+      </c>
+      <c r="F91" t="s">
+        <v>13</v>
+      </c>
+      <c r="G91" t="s">
+        <v>14</v>
+      </c>
+      <c r="H91" t="s">
+        <v>15</v>
+      </c>
+      <c r="I91" t="s">
+        <v>16</v>
+      </c>
+      <c r="J91" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10">
+      <c r="A92" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="s">
+        <v>9</v>
+      </c>
+      <c r="C92" t="s">
+        <v>10</v>
+      </c>
+      <c r="D92" t="s">
+        <v>11</v>
+      </c>
+      <c r="E92" t="s">
+        <v>12</v>
+      </c>
+      <c r="F92" t="s">
+        <v>18</v>
+      </c>
+      <c r="G92" t="s"/>
+      <c r="H92" t="s">
+        <v>19</v>
+      </c>
+      <c r="I92" t="s"/>
+      <c r="J92" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="93" spans="1:10">
+      <c r="A93" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="s">
+        <v>9</v>
+      </c>
+      <c r="C93" t="s">
+        <v>10</v>
+      </c>
+      <c r="D93" t="s">
+        <v>11</v>
+      </c>
+      <c r="E93" t="s">
+        <v>12</v>
+      </c>
+      <c r="F93" t="s">
+        <v>13</v>
+      </c>
+      <c r="G93" t="s">
+        <v>14</v>
+      </c>
+      <c r="H93" t="s">
+        <v>15</v>
+      </c>
+      <c r="I93" t="s">
+        <v>16</v>
+      </c>
+      <c r="J93" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="94" spans="1:10">
+      <c r="A94" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="s">
+        <v>9</v>
+      </c>
+      <c r="C94" t="s">
+        <v>10</v>
+      </c>
+      <c r="D94" t="s">
+        <v>11</v>
+      </c>
+      <c r="E94" t="s">
+        <v>12</v>
+      </c>
+      <c r="F94" t="s">
+        <v>18</v>
+      </c>
+      <c r="G94" t="s"/>
+      <c r="H94" t="s">
+        <v>19</v>
+      </c>
+      <c r="I94" t="s"/>
+      <c r="J94" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="95" spans="1:10">
+      <c r="A95" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="s">
+        <v>9</v>
+      </c>
+      <c r="C95" t="s">
+        <v>10</v>
+      </c>
+      <c r="D95" t="s">
+        <v>11</v>
+      </c>
+      <c r="E95" t="s">
+        <v>12</v>
+      </c>
+      <c r="F95" t="s">
+        <v>13</v>
+      </c>
+      <c r="G95" t="s">
+        <v>14</v>
+      </c>
+      <c r="H95" t="s">
+        <v>15</v>
+      </c>
+      <c r="I95" t="s">
+        <v>16</v>
+      </c>
+      <c r="J95" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="96" spans="1:10">
+      <c r="A96" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="s">
+        <v>9</v>
+      </c>
+      <c r="C96" t="s">
+        <v>10</v>
+      </c>
+      <c r="D96" t="s">
+        <v>11</v>
+      </c>
+      <c r="E96" t="s">
+        <v>12</v>
+      </c>
+      <c r="F96" t="s">
+        <v>18</v>
+      </c>
+      <c r="G96" t="s"/>
+      <c r="H96" t="s">
+        <v>19</v>
+      </c>
+      <c r="I96" t="s"/>
+      <c r="J96" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="97" spans="1:10">
+      <c r="A97" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="s">
+        <v>9</v>
+      </c>
+      <c r="C97" t="s">
+        <v>10</v>
+      </c>
+      <c r="D97" t="s">
+        <v>11</v>
+      </c>
+      <c r="E97" t="s">
+        <v>12</v>
+      </c>
+      <c r="F97" t="s">
+        <v>13</v>
+      </c>
+      <c r="G97" t="s">
+        <v>14</v>
+      </c>
+      <c r="H97" t="s">
+        <v>15</v>
+      </c>
+      <c r="I97" t="s">
+        <v>16</v>
+      </c>
+      <c r="J97" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="98" spans="1:10">
+      <c r="A98" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="s">
+        <v>9</v>
+      </c>
+      <c r="C98" t="s">
+        <v>10</v>
+      </c>
+      <c r="D98" t="s">
+        <v>11</v>
+      </c>
+      <c r="E98" t="s">
+        <v>12</v>
+      </c>
+      <c r="F98" t="s">
+        <v>18</v>
+      </c>
+      <c r="G98" t="s"/>
+      <c r="H98" t="s">
+        <v>19</v>
+      </c>
+      <c r="I98" t="s"/>
+      <c r="J98" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="99" spans="1:10">
+      <c r="A99" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="s">
+        <v>9</v>
+      </c>
+      <c r="C99" t="s">
+        <v>10</v>
+      </c>
+      <c r="D99" t="s">
+        <v>11</v>
+      </c>
+      <c r="E99" t="s">
+        <v>12</v>
+      </c>
+      <c r="F99" t="s">
+        <v>13</v>
+      </c>
+      <c r="G99" t="s">
+        <v>14</v>
+      </c>
+      <c r="H99" t="s">
+        <v>15</v>
+      </c>
+      <c r="I99" t="s">
+        <v>16</v>
+      </c>
+      <c r="J99" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="100" spans="1:10">
+      <c r="A100" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="s">
+        <v>9</v>
+      </c>
+      <c r="C100" t="s">
+        <v>10</v>
+      </c>
+      <c r="D100" t="s">
+        <v>11</v>
+      </c>
+      <c r="E100" t="s">
+        <v>12</v>
+      </c>
+      <c r="F100" t="s">
+        <v>126</v>
+      </c>
+      <c r="G100" t="s">
+        <v>83</v>
+      </c>
+      <c r="H100" t="s">
+        <v>127</v>
+      </c>
+      <c r="I100" t="s">
+        <v>128</v>
+      </c>
+      <c r="J100" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="101" spans="1:10">
+      <c r="A101" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="s">
+        <v>9</v>
+      </c>
+      <c r="C101" t="s">
+        <v>10</v>
+      </c>
+      <c r="D101" t="s">
+        <v>11</v>
+      </c>
+      <c r="E101" t="s">
+        <v>12</v>
+      </c>
+      <c r="F101" t="s">
+        <v>18</v>
+      </c>
+      <c r="G101" t="s"/>
+      <c r="H101" t="s">
+        <v>30</v>
+      </c>
+      <c r="I101" t="s"/>
+      <c r="J101" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="102" spans="1:10">
+      <c r="A102" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="s">
+        <v>9</v>
+      </c>
+      <c r="C102" t="s">
+        <v>10</v>
+      </c>
+      <c r="D102" t="s">
+        <v>11</v>
+      </c>
+      <c r="E102" t="s">
+        <v>12</v>
+      </c>
+      <c r="F102" t="s">
+        <v>126</v>
+      </c>
+      <c r="G102" t="s">
+        <v>83</v>
+      </c>
+      <c r="H102" t="s">
+        <v>127</v>
+      </c>
+      <c r="I102" t="s">
+        <v>128</v>
+      </c>
+      <c r="J102" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="103" spans="1:10">
+      <c r="A103" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="s">
+        <v>9</v>
+      </c>
+      <c r="C103" t="s">
+        <v>10</v>
+      </c>
+      <c r="D103" t="s">
+        <v>11</v>
+      </c>
+      <c r="E103" t="s">
+        <v>12</v>
+      </c>
+      <c r="F103" t="s">
+        <v>18</v>
+      </c>
+      <c r="G103" t="s"/>
+      <c r="H103" t="s">
+        <v>41</v>
+      </c>
+      <c r="I103" t="s"/>
+      <c r="J103" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="104" spans="1:10">
+      <c r="A104" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="s">
+        <v>9</v>
+      </c>
+      <c r="C104" t="s">
+        <v>10</v>
+      </c>
+      <c r="D104" t="s">
+        <v>11</v>
+      </c>
+      <c r="E104" t="s">
+        <v>12</v>
+      </c>
+      <c r="F104" t="s">
+        <v>126</v>
+      </c>
+      <c r="G104" t="s">
+        <v>83</v>
+      </c>
+      <c r="H104" t="s">
+        <v>127</v>
+      </c>
+      <c r="I104" t="s">
+        <v>128</v>
+      </c>
+      <c r="J104" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="105" spans="1:10">
+      <c r="A105" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="s">
+        <v>9</v>
+      </c>
+      <c r="C105" t="s">
+        <v>10</v>
+      </c>
+      <c r="D105" t="s">
+        <v>11</v>
+      </c>
+      <c r="E105" t="s">
+        <v>12</v>
+      </c>
+      <c r="F105" t="s">
+        <v>18</v>
+      </c>
+      <c r="G105" t="s"/>
+      <c r="H105" t="s">
+        <v>19</v>
+      </c>
+      <c r="I105" t="s"/>
+      <c r="J105" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="106" spans="1:10">
+      <c r="A106" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="s">
+        <v>9</v>
+      </c>
+      <c r="C106" t="s">
+        <v>10</v>
+      </c>
+      <c r="D106" t="s">
+        <v>11</v>
+      </c>
+      <c r="E106" t="s">
+        <v>12</v>
+      </c>
+      <c r="F106" t="s">
+        <v>18</v>
+      </c>
+      <c r="G106" t="s"/>
+      <c r="H106" t="s">
+        <v>41</v>
+      </c>
+      <c r="I106" t="s"/>
+      <c r="J106" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="107" spans="1:10">
+      <c r="A107" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="s">
+        <v>9</v>
+      </c>
+      <c r="C107" t="s">
+        <v>10</v>
+      </c>
+      <c r="D107" t="s">
+        <v>11</v>
+      </c>
+      <c r="E107" t="s">
+        <v>12</v>
+      </c>
+      <c r="F107" t="s">
+        <v>18</v>
+      </c>
+      <c r="G107" t="s"/>
+      <c r="H107" t="s">
+        <v>19</v>
+      </c>
+      <c r="I107" t="s"/>
+      <c r="J107" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="108" spans="1:10">
+      <c r="A108" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="s">
+        <v>9</v>
+      </c>
+      <c r="C108" t="s">
+        <v>10</v>
+      </c>
+      <c r="D108" t="s">
+        <v>11</v>
+      </c>
+      <c r="E108" t="s">
+        <v>12</v>
+      </c>
+      <c r="F108" t="s">
+        <v>126</v>
+      </c>
+      <c r="G108" t="s">
+        <v>83</v>
+      </c>
+      <c r="H108" t="s">
+        <v>127</v>
+      </c>
+      <c r="I108" t="s">
+        <v>128</v>
+      </c>
+      <c r="J108" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="109" spans="1:10">
+      <c r="A109" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="s">
+        <v>9</v>
+      </c>
+      <c r="C109" t="s">
+        <v>10</v>
+      </c>
+      <c r="D109" t="s">
+        <v>11</v>
+      </c>
+      <c r="E109" t="s">
+        <v>12</v>
+      </c>
+      <c r="F109" t="s">
+        <v>13</v>
+      </c>
+      <c r="G109" t="s">
+        <v>14</v>
+      </c>
+      <c r="H109" t="s">
+        <v>15</v>
+      </c>
+      <c r="I109" t="s">
+        <v>16</v>
+      </c>
+      <c r="J109" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="110" spans="1:10">
+      <c r="A110" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="s">
+        <v>9</v>
+      </c>
+      <c r="C110" t="s">
+        <v>10</v>
+      </c>
+      <c r="D110" t="s">
+        <v>11</v>
+      </c>
+      <c r="E110" t="s">
+        <v>12</v>
+      </c>
+      <c r="F110" t="s">
+        <v>139</v>
+      </c>
+      <c r="G110" t="s">
+        <v>83</v>
+      </c>
+      <c r="H110" t="s">
+        <v>140</v>
+      </c>
+      <c r="I110" t="s">
+        <v>141</v>
+      </c>
+      <c r="J110" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="111" spans="1:10">
+      <c r="A111" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="s">
+        <v>9</v>
+      </c>
+      <c r="C111" t="s">
+        <v>10</v>
+      </c>
+      <c r="D111" t="s">
+        <v>11</v>
+      </c>
+      <c r="E111" t="s">
+        <v>12</v>
+      </c>
+      <c r="F111" t="s">
+        <v>18</v>
+      </c>
+      <c r="G111" t="s"/>
+      <c r="H111" t="s">
+        <v>30</v>
+      </c>
+      <c r="I111" t="s"/>
+      <c r="J111" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="112" spans="1:10">
+      <c r="A112" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="s">
+        <v>9</v>
+      </c>
+      <c r="C112" t="s">
+        <v>10</v>
+      </c>
+      <c r="D112" t="s">
+        <v>11</v>
+      </c>
+      <c r="E112" t="s">
+        <v>12</v>
+      </c>
+      <c r="F112" t="s">
+        <v>18</v>
+      </c>
+      <c r="G112" t="s"/>
+      <c r="H112" t="s">
+        <v>19</v>
+      </c>
+      <c r="I112" t="s"/>
+      <c r="J112" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="113" spans="1:10">
+      <c r="A113" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="s">
+        <v>9</v>
+      </c>
+      <c r="C113" t="s">
+        <v>10</v>
+      </c>
+      <c r="D113" t="s">
+        <v>11</v>
+      </c>
+      <c r="E113" t="s">
+        <v>12</v>
+      </c>
+      <c r="F113" t="s">
+        <v>18</v>
+      </c>
+      <c r="G113" t="s"/>
+      <c r="H113" t="s">
+        <v>30</v>
+      </c>
+      <c r="I113" t="s"/>
+      <c r="J113" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="114" spans="1:10">
+      <c r="A114" s="1" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="s">
+        <v>9</v>
+      </c>
+      <c r="C114" t="s">
+        <v>10</v>
+      </c>
+      <c r="D114" t="s">
+        <v>11</v>
+      </c>
+      <c r="E114" t="s">
+        <v>12</v>
+      </c>
+      <c r="F114" t="s">
+        <v>139</v>
+      </c>
+      <c r="G114" t="s">
+        <v>83</v>
+      </c>
+      <c r="H114" t="s">
+        <v>140</v>
+      </c>
+      <c r="I114" t="s">
+        <v>141</v>
+      </c>
+      <c r="J114" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="115" spans="1:10">
+      <c r="A115" s="1" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="s">
+        <v>9</v>
+      </c>
+      <c r="C115" t="s">
+        <v>10</v>
+      </c>
+      <c r="D115" t="s">
+        <v>11</v>
+      </c>
+      <c r="E115" t="s">
+        <v>12</v>
+      </c>
+      <c r="F115" t="s">
+        <v>18</v>
+      </c>
+      <c r="G115" t="s"/>
+      <c r="H115" t="s">
+        <v>27</v>
+      </c>
+      <c r="I115" t="s"/>
+      <c r="J115" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="116" spans="1:10">
+      <c r="A116" s="1" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="s">
+        <v>9</v>
+      </c>
+      <c r="C116" t="s">
+        <v>10</v>
+      </c>
+      <c r="D116" t="s">
+        <v>11</v>
+      </c>
+      <c r="E116" t="s">
+        <v>12</v>
+      </c>
+      <c r="F116" t="s">
+        <v>18</v>
+      </c>
+      <c r="G116" t="s"/>
+      <c r="H116" t="s">
+        <v>30</v>
+      </c>
+      <c r="I116" t="s"/>
+      <c r="J116" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="117" spans="1:10">
+      <c r="A117" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="s">
+        <v>9</v>
+      </c>
+      <c r="C117" t="s">
+        <v>10</v>
+      </c>
+      <c r="D117" t="s">
+        <v>11</v>
+      </c>
+      <c r="E117" t="s">
+        <v>12</v>
+      </c>
+      <c r="F117" t="s">
+        <v>139</v>
+      </c>
+      <c r="G117" t="s">
+        <v>83</v>
+      </c>
+      <c r="H117" t="s">
+        <v>140</v>
+      </c>
+      <c r="I117" t="s">
+        <v>141</v>
+      </c>
+      <c r="J117" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="118" spans="1:10">
+      <c r="A118" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="s">
+        <v>9</v>
+      </c>
+      <c r="C118" t="s">
+        <v>10</v>
+      </c>
+      <c r="D118" t="s">
+        <v>11</v>
+      </c>
+      <c r="E118" t="s">
+        <v>12</v>
+      </c>
+      <c r="F118" t="s">
+        <v>18</v>
+      </c>
+      <c r="G118" t="s"/>
+      <c r="H118" t="s">
+        <v>19</v>
+      </c>
+      <c r="I118" t="s"/>
+      <c r="J118" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="119" spans="1:10">
+      <c r="A119" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="s">
+        <v>9</v>
+      </c>
+      <c r="C119" t="s">
+        <v>10</v>
+      </c>
+      <c r="D119" t="s">
+        <v>11</v>
+      </c>
+      <c r="E119" t="s">
+        <v>12</v>
+      </c>
+      <c r="F119" t="s">
+        <v>18</v>
+      </c>
+      <c r="G119" t="s"/>
+      <c r="H119" t="s">
+        <v>27</v>
+      </c>
+      <c r="I119" t="s"/>
+      <c r="J119" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="120" spans="1:10">
+      <c r="A120" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="s">
+        <v>9</v>
+      </c>
+      <c r="C120" t="s">
+        <v>10</v>
+      </c>
+      <c r="D120" t="s">
+        <v>11</v>
+      </c>
+      <c r="E120" t="s">
+        <v>12</v>
+      </c>
+      <c r="F120" t="s">
+        <v>18</v>
+      </c>
+      <c r="G120" t="s"/>
+      <c r="H120" t="s">
+        <v>41</v>
+      </c>
+      <c r="I120" t="s"/>
+      <c r="J120" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="121" spans="1:10">
+      <c r="A121" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="s">
+        <v>9</v>
+      </c>
+      <c r="C121" t="s">
+        <v>10</v>
+      </c>
+      <c r="D121" t="s">
+        <v>11</v>
+      </c>
+      <c r="E121" t="s">
+        <v>12</v>
+      </c>
+      <c r="F121" t="s">
+        <v>13</v>
+      </c>
+      <c r="G121" t="s">
+        <v>14</v>
+      </c>
+      <c r="H121" t="s">
+        <v>15</v>
+      </c>
+      <c r="I121" t="s">
+        <v>16</v>
+      </c>
+      <c r="J121" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="122" spans="1:10">
+      <c r="A122" s="1" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="s">
+        <v>9</v>
+      </c>
+      <c r="C122" t="s">
+        <v>10</v>
+      </c>
+      <c r="D122" t="s">
+        <v>11</v>
+      </c>
+      <c r="E122" t="s">
+        <v>12</v>
+      </c>
+      <c r="F122" t="s">
+        <v>139</v>
+      </c>
+      <c r="G122" t="s">
+        <v>83</v>
+      </c>
+      <c r="H122" t="s">
+        <v>140</v>
+      </c>
+      <c r="I122" t="s">
+        <v>141</v>
+      </c>
+      <c r="J122" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="123" spans="1:10">
+      <c r="A123" s="1" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="s">
+        <v>9</v>
+      </c>
+      <c r="C123" t="s">
+        <v>10</v>
+      </c>
+      <c r="D123" t="s">
+        <v>11</v>
+      </c>
+      <c r="E123" t="s">
+        <v>12</v>
+      </c>
+      <c r="F123" t="s">
+        <v>13</v>
+      </c>
+      <c r="G123" t="s">
+        <v>14</v>
+      </c>
+      <c r="H123" t="s">
+        <v>15</v>
+      </c>
+      <c r="I123" t="s">
+        <v>16</v>
+      </c>
+      <c r="J123" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="124" spans="1:10">
+      <c r="A124" s="1" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="s">
+        <v>9</v>
+      </c>
+      <c r="C124" t="s">
+        <v>10</v>
+      </c>
+      <c r="D124" t="s">
+        <v>11</v>
+      </c>
+      <c r="E124" t="s">
+        <v>12</v>
+      </c>
+      <c r="F124" t="s">
+        <v>156</v>
+      </c>
+      <c r="G124" t="s">
+        <v>83</v>
+      </c>
+      <c r="H124" t="s">
+        <v>157</v>
+      </c>
+      <c r="I124" t="s">
+        <v>158</v>
+      </c>
+      <c r="J124" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="125" spans="1:10">
+      <c r="A125" s="1" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="s">
+        <v>9</v>
+      </c>
+      <c r="C125" t="s">
+        <v>10</v>
+      </c>
+      <c r="D125" t="s">
+        <v>11</v>
+      </c>
+      <c r="E125" t="s">
+        <v>12</v>
+      </c>
+      <c r="F125" t="s">
+        <v>18</v>
+      </c>
+      <c r="G125" t="s"/>
+      <c r="H125" t="s">
+        <v>41</v>
+      </c>
+      <c r="I125" t="s"/>
+      <c r="J125" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="126" spans="1:10">
+      <c r="A126" s="1" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="s">
+        <v>9</v>
+      </c>
+      <c r="C126" t="s">
+        <v>10</v>
+      </c>
+      <c r="D126" t="s">
+        <v>11</v>
+      </c>
+      <c r="E126" t="s">
+        <v>12</v>
+      </c>
+      <c r="F126" t="s">
+        <v>156</v>
+      </c>
+      <c r="G126" t="s">
+        <v>83</v>
+      </c>
+      <c r="H126" t="s">
+        <v>157</v>
+      </c>
+      <c r="I126" t="s">
+        <v>158</v>
+      </c>
+      <c r="J126" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="127" spans="1:10">
+      <c r="A127" s="1" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="s">
+        <v>9</v>
+      </c>
+      <c r="C127" t="s">
+        <v>10</v>
+      </c>
+      <c r="D127" t="s">
+        <v>11</v>
+      </c>
+      <c r="E127" t="s">
+        <v>12</v>
+      </c>
+      <c r="F127" t="s">
+        <v>18</v>
+      </c>
+      <c r="G127" t="s"/>
+      <c r="H127" t="s">
+        <v>27</v>
+      </c>
+      <c r="I127" t="s"/>
+      <c r="J127" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="128" spans="1:10">
+      <c r="A128" s="1" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="s">
+        <v>9</v>
+      </c>
+      <c r="C128" t="s">
+        <v>10</v>
+      </c>
+      <c r="D128" t="s">
+        <v>11</v>
+      </c>
+      <c r="E128" t="s">
+        <v>12</v>
+      </c>
+      <c r="F128" t="s">
+        <v>156</v>
+      </c>
+      <c r="G128" t="s">
+        <v>83</v>
+      </c>
+      <c r="H128" t="s">
+        <v>157</v>
+      </c>
+      <c r="I128" t="s">
+        <v>158</v>
+      </c>
+      <c r="J128" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="129" spans="1:10">
+      <c r="A129" s="1" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="s">
+        <v>9</v>
+      </c>
+      <c r="C129" t="s">
+        <v>10</v>
+      </c>
+      <c r="D129" t="s">
+        <v>11</v>
+      </c>
+      <c r="E129" t="s">
+        <v>12</v>
+      </c>
+      <c r="F129" t="s">
+        <v>18</v>
+      </c>
+      <c r="G129" t="s"/>
+      <c r="H129" t="s">
+        <v>30</v>
+      </c>
+      <c r="I129" t="s"/>
+      <c r="J129" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="130" spans="1:10">
+      <c r="A130" s="1" t="n">
+        <v>128</v>
+      </c>
+      <c r="B130" t="s">
+        <v>9</v>
+      </c>
+      <c r="C130" t="s">
+        <v>10</v>
+      </c>
+      <c r="D130" t="s">
+        <v>11</v>
+      </c>
+      <c r="E130" t="s">
+        <v>12</v>
+      </c>
+      <c r="F130" t="s">
+        <v>156</v>
+      </c>
+      <c r="G130" t="s">
+        <v>83</v>
+      </c>
+      <c r="H130" t="s">
+        <v>157</v>
+      </c>
+      <c r="I130" t="s">
+        <v>158</v>
+      </c>
+      <c r="J130" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="131" spans="1:10">
+      <c r="A131" s="1" t="n">
+        <v>129</v>
+      </c>
+      <c r="B131" t="s">
+        <v>9</v>
+      </c>
+      <c r="C131" t="s">
+        <v>10</v>
+      </c>
+      <c r="D131" t="s">
+        <v>11</v>
+      </c>
+      <c r="E131" t="s">
+        <v>12</v>
+      </c>
+      <c r="F131" t="s">
+        <v>13</v>
+      </c>
+      <c r="G131" t="s">
+        <v>14</v>
+      </c>
+      <c r="H131" t="s">
+        <v>15</v>
+      </c>
+      <c r="I131" t="s">
+        <v>16</v>
+      </c>
+      <c r="J131" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="132" spans="1:10">
+      <c r="A132" s="1" t="n">
+        <v>130</v>
+      </c>
+      <c r="B132" t="s">
+        <v>9</v>
+      </c>
+      <c r="C132" t="s">
+        <v>10</v>
+      </c>
+      <c r="D132" t="s">
+        <v>11</v>
+      </c>
+      <c r="E132" t="s">
+        <v>12</v>
+      </c>
+      <c r="F132" t="s">
+        <v>167</v>
+      </c>
+      <c r="G132" t="s">
+        <v>83</v>
+      </c>
+      <c r="H132" t="s">
+        <v>168</v>
+      </c>
+      <c r="I132" t="s">
+        <v>169</v>
+      </c>
+      <c r="J132" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="133" spans="1:10">
+      <c r="A133" s="1" t="n">
+        <v>131</v>
+      </c>
+      <c r="B133" t="s">
+        <v>9</v>
+      </c>
+      <c r="C133" t="s">
+        <v>10</v>
+      </c>
+      <c r="D133" t="s">
+        <v>11</v>
+      </c>
+      <c r="E133" t="s">
+        <v>12</v>
+      </c>
+      <c r="F133" t="s">
+        <v>18</v>
+      </c>
+      <c r="G133" t="s"/>
+      <c r="H133" t="s">
+        <v>30</v>
+      </c>
+      <c r="I133" t="s"/>
+      <c r="J133" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="134" spans="1:10">
+      <c r="A134" s="1" t="n">
+        <v>132</v>
+      </c>
+      <c r="B134" t="s">
+        <v>9</v>
+      </c>
+      <c r="C134" t="s">
+        <v>10</v>
+      </c>
+      <c r="D134" t="s">
+        <v>11</v>
+      </c>
+      <c r="E134" t="s">
+        <v>12</v>
+      </c>
+      <c r="F134" t="s">
+        <v>167</v>
+      </c>
+      <c r="G134" t="s">
+        <v>83</v>
+      </c>
+      <c r="H134" t="s">
+        <v>168</v>
+      </c>
+      <c r="I134" t="s">
+        <v>169</v>
+      </c>
+      <c r="J134" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="135" spans="1:10">
+      <c r="A135" s="1" t="n">
+        <v>133</v>
+      </c>
+      <c r="B135" t="s">
+        <v>9</v>
+      </c>
+      <c r="C135" t="s">
+        <v>10</v>
+      </c>
+      <c r="D135" t="s">
+        <v>11</v>
+      </c>
+      <c r="E135" t="s">
+        <v>12</v>
+      </c>
+      <c r="F135" t="s">
+        <v>18</v>
+      </c>
+      <c r="G135" t="s"/>
+      <c r="H135" t="s">
+        <v>30</v>
+      </c>
+      <c r="I135" t="s"/>
+      <c r="J135" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="136" spans="1:10">
+      <c r="A136" s="1" t="n">
+        <v>134</v>
+      </c>
+      <c r="B136" t="s">
+        <v>9</v>
+      </c>
+      <c r="C136" t="s">
+        <v>10</v>
+      </c>
+      <c r="D136" t="s">
+        <v>11</v>
+      </c>
+      <c r="E136" t="s">
+        <v>12</v>
+      </c>
+      <c r="F136" t="s">
+        <v>18</v>
+      </c>
+      <c r="G136" t="s"/>
+      <c r="H136" t="s">
+        <v>27</v>
+      </c>
+      <c r="I136" t="s"/>
+      <c r="J136" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="137" spans="1:10">
+      <c r="A137" s="1" t="n">
+        <v>135</v>
+      </c>
+      <c r="B137" t="s">
+        <v>9</v>
+      </c>
+      <c r="C137" t="s">
+        <v>10</v>
+      </c>
+      <c r="D137" t="s">
+        <v>11</v>
+      </c>
+      <c r="E137" t="s">
+        <v>12</v>
+      </c>
+      <c r="F137" t="s">
+        <v>167</v>
+      </c>
+      <c r="G137" t="s">
+        <v>83</v>
+      </c>
+      <c r="H137" t="s">
+        <v>168</v>
+      </c>
+      <c r="I137" t="s">
+        <v>169</v>
+      </c>
+      <c r="J137" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="138" spans="1:10">
+      <c r="A138" s="1" t="n">
+        <v>136</v>
+      </c>
+      <c r="B138" t="s">
+        <v>9</v>
+      </c>
+      <c r="C138" t="s">
+        <v>10</v>
+      </c>
+      <c r="D138" t="s">
+        <v>11</v>
+      </c>
+      <c r="E138" t="s">
+        <v>12</v>
+      </c>
+      <c r="F138" t="s">
+        <v>18</v>
+      </c>
+      <c r="G138" t="s"/>
+      <c r="H138" t="s">
+        <v>19</v>
+      </c>
+      <c r="I138" t="s"/>
+      <c r="J138" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="139" spans="1:10">
+      <c r="A139" s="1" t="n">
+        <v>137</v>
+      </c>
+      <c r="B139" t="s">
+        <v>9</v>
+      </c>
+      <c r="C139" t="s">
+        <v>10</v>
+      </c>
+      <c r="D139" t="s">
+        <v>11</v>
+      </c>
+      <c r="E139" t="s">
+        <v>12</v>
+      </c>
+      <c r="F139" t="s">
+        <v>167</v>
+      </c>
+      <c r="G139" t="s">
+        <v>83</v>
+      </c>
+      <c r="H139" t="s">
+        <v>168</v>
+      </c>
+      <c r="I139" t="s">
+        <v>169</v>
+      </c>
+      <c r="J139" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="140" spans="1:10">
+      <c r="A140" s="1" t="n">
+        <v>138</v>
+      </c>
+      <c r="B140" t="s">
+        <v>9</v>
+      </c>
+      <c r="C140" t="s">
+        <v>10</v>
+      </c>
+      <c r="D140" t="s">
+        <v>11</v>
+      </c>
+      <c r="E140" t="s">
+        <v>12</v>
+      </c>
+      <c r="F140" t="s">
+        <v>18</v>
+      </c>
+      <c r="G140" t="s"/>
+      <c r="H140" t="s">
+        <v>41</v>
+      </c>
+      <c r="I140" t="s"/>
+      <c r="J140" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="141" spans="1:10">
+      <c r="A141" s="1" t="n">
+        <v>139</v>
+      </c>
+      <c r="B141" t="s">
+        <v>9</v>
+      </c>
+      <c r="C141" t="s">
+        <v>10</v>
+      </c>
+      <c r="D141" t="s">
+        <v>11</v>
+      </c>
+      <c r="E141" t="s">
+        <v>12</v>
+      </c>
+      <c r="F141" t="s">
+        <v>167</v>
+      </c>
+      <c r="G141" t="s">
+        <v>83</v>
+      </c>
+      <c r="H141" t="s">
+        <v>168</v>
+      </c>
+      <c r="I141" t="s">
+        <v>169</v>
+      </c>
+      <c r="J141" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="142" spans="1:10">
+      <c r="A142" s="1" t="n">
+        <v>140</v>
+      </c>
+      <c r="B142" t="s">
+        <v>9</v>
+      </c>
+      <c r="C142" t="s">
+        <v>10</v>
+      </c>
+      <c r="D142" t="s">
+        <v>11</v>
+      </c>
+      <c r="E142" t="s">
+        <v>12</v>
+      </c>
+      <c r="F142" t="s">
+        <v>18</v>
+      </c>
+      <c r="G142" t="s"/>
+      <c r="H142" t="s">
+        <v>41</v>
+      </c>
+      <c r="I142" t="s"/>
+      <c r="J142" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="143" spans="1:10">
+      <c r="A143" s="1" t="n">
+        <v>141</v>
+      </c>
+      <c r="B143" t="s">
+        <v>9</v>
+      </c>
+      <c r="C143" t="s">
+        <v>10</v>
+      </c>
+      <c r="D143" t="s">
+        <v>11</v>
+      </c>
+      <c r="E143" t="s">
+        <v>12</v>
+      </c>
+      <c r="F143" t="s">
+        <v>18</v>
+      </c>
+      <c r="G143" t="s"/>
+      <c r="H143" t="s">
+        <v>30</v>
+      </c>
+      <c r="I143" t="s"/>
+      <c r="J143" t="s">
+        <v>181</v>
+      </c>
+    </row>
+    <row r="144" spans="1:10">
+      <c r="A144" s="1" t="n">
+        <v>142</v>
+      </c>
+      <c r="B144" t="s">
+        <v>9</v>
+      </c>
+      <c r="C144" t="s">
+        <v>10</v>
+      </c>
+      <c r="D144" t="s">
+        <v>11</v>
+      </c>
+      <c r="E144" t="s">
+        <v>12</v>
+      </c>
+      <c r="F144" t="s">
+        <v>13</v>
+      </c>
+      <c r="G144" t="s">
+        <v>14</v>
+      </c>
+      <c r="H144" t="s">
+        <v>15</v>
+      </c>
+      <c r="I144" t="s">
+        <v>16</v>
+      </c>
+      <c r="J144" t="s">
+        <v>182</v>
+      </c>
+    </row>
+    <row r="145" spans="1:10">
+      <c r="A145" s="1" t="n">
+        <v>143</v>
+      </c>
+      <c r="B145" t="s">
+        <v>9</v>
+      </c>
+      <c r="C145" t="s">
+        <v>10</v>
+      </c>
+      <c r="D145" t="s">
+        <v>11</v>
+      </c>
+      <c r="E145" t="s">
+        <v>12</v>
+      </c>
+      <c r="F145" t="s">
+        <v>18</v>
+      </c>
+      <c r="G145" t="s"/>
+      <c r="H145" t="s">
+        <v>30</v>
+      </c>
+      <c r="I145" t="s"/>
+      <c r="J145" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="146" spans="1:10">
+      <c r="A146" s="1" t="n">
+        <v>144</v>
+      </c>
+      <c r="B146" t="s">
+        <v>9</v>
+      </c>
+      <c r="C146" t="s">
+        <v>10</v>
+      </c>
+      <c r="D146" t="s">
+        <v>11</v>
+      </c>
+      <c r="E146" t="s">
+        <v>12</v>
+      </c>
+      <c r="F146" t="s">
+        <v>18</v>
+      </c>
+      <c r="G146" t="s"/>
+      <c r="H146" t="s">
+        <v>19</v>
+      </c>
+      <c r="I146" t="s"/>
+      <c r="J146" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="147" spans="1:10">
+      <c r="A147" s="1" t="n">
+        <v>145</v>
+      </c>
+      <c r="B147" t="s">
+        <v>9</v>
+      </c>
+      <c r="C147" t="s">
+        <v>10</v>
+      </c>
+      <c r="D147" t="s">
+        <v>11</v>
+      </c>
+      <c r="E147" t="s">
+        <v>12</v>
+      </c>
+      <c r="F147" t="s">
+        <v>13</v>
+      </c>
+      <c r="G147" t="s">
+        <v>14</v>
+      </c>
+      <c r="H147" t="s">
+        <v>15</v>
+      </c>
+      <c r="I147" t="s">
+        <v>16</v>
+      </c>
+      <c r="J147" t="s">
+        <v>185</v>
+      </c>
+    </row>
+    <row r="148" spans="1:10">
+      <c r="A148" s="1" t="n">
+        <v>146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>9</v>
+      </c>
+      <c r="C148" t="s">
+        <v>10</v>
+      </c>
+      <c r="D148" t="s">
+        <v>11</v>
+      </c>
+      <c r="E148" t="s">
+        <v>12</v>
+      </c>
+      <c r="F148" t="s">
+        <v>18</v>
+      </c>
+      <c r="G148" t="s"/>
+      <c r="H148" t="s">
+        <v>186</v>
+      </c>
+      <c r="I148" t="s"/>
+      <c r="J148" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="149" spans="1:10">
+      <c r="A149" s="1" t="n">
+        <v>147</v>
+      </c>
+      <c r="B149" t="s">
+        <v>9</v>
+      </c>
+      <c r="C149" t="s">
+        <v>10</v>
+      </c>
+      <c r="D149" t="s">
+        <v>11</v>
+      </c>
+      <c r="E149" t="s">
+        <v>12</v>
+      </c>
+      <c r="F149" t="s">
+        <v>18</v>
+      </c>
+      <c r="G149" t="s"/>
+      <c r="H149" t="s">
+        <v>27</v>
+      </c>
+      <c r="I149" t="s"/>
+      <c r="J149" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="150" spans="1:10">
+      <c r="A150" s="1" t="n">
+        <v>148</v>
+      </c>
+      <c r="B150" t="s">
+        <v>9</v>
+      </c>
+      <c r="C150" t="s">
+        <v>10</v>
+      </c>
+      <c r="D150" t="s">
+        <v>11</v>
+      </c>
+      <c r="E150" t="s">
+        <v>12</v>
+      </c>
+      <c r="F150" t="s">
+        <v>18</v>
+      </c>
+      <c r="G150" t="s"/>
+      <c r="H150" t="s">
+        <v>30</v>
+      </c>
+      <c r="I150" t="s"/>
+      <c r="J150" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="151" spans="1:10">
+      <c r="A151" s="1" t="n">
+        <v>149</v>
+      </c>
+      <c r="B151" t="s">
+        <v>9</v>
+      </c>
+      <c r="C151" t="s">
+        <v>10</v>
+      </c>
+      <c r="D151" t="s">
+        <v>11</v>
+      </c>
+      <c r="E151" t="s">
+        <v>12</v>
+      </c>
+      <c r="F151" t="s">
+        <v>18</v>
+      </c>
+      <c r="G151" t="s"/>
+      <c r="H151" t="s">
+        <v>19</v>
+      </c>
+      <c r="I151" t="s"/>
+      <c r="J151" t="s">
+        <v>190</v>
+      </c>
+    </row>
+    <row r="152" spans="1:10">
+      <c r="A152" s="1" t="n">
+        <v>150</v>
+      </c>
+      <c r="B152" t="s">
+        <v>9</v>
+      </c>
+      <c r="C152" t="s">
+        <v>10</v>
+      </c>
+      <c r="D152" t="s">
+        <v>11</v>
+      </c>
+      <c r="E152" t="s">
+        <v>12</v>
+      </c>
+      <c r="F152" t="s">
+        <v>18</v>
+      </c>
+      <c r="G152" t="s"/>
+      <c r="H152" t="s">
+        <v>41</v>
+      </c>
+      <c r="I152" t="s"/>
+      <c r="J152" t="s">
+        <v>191</v>
+      </c>
+    </row>
+    <row r="153" spans="1:10">
+      <c r="A153" s="1" t="n">
+        <v>151</v>
+      </c>
+      <c r="B153" t="s">
+        <v>9</v>
+      </c>
+      <c r="C153" t="s">
+        <v>10</v>
+      </c>
+      <c r="D153" t="s">
+        <v>11</v>
+      </c>
+      <c r="E153" t="s">
+        <v>12</v>
+      </c>
+      <c r="F153" t="s">
+        <v>18</v>
+      </c>
+      <c r="G153" t="s"/>
+      <c r="H153" t="s">
+        <v>30</v>
+      </c>
+      <c r="I153" t="s"/>
+      <c r="J153" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="154" spans="1:10">
+      <c r="A154" s="1" t="n">
+        <v>152</v>
+      </c>
+      <c r="B154" t="s">
+        <v>9</v>
+      </c>
+      <c r="C154" t="s">
+        <v>10</v>
+      </c>
+      <c r="D154" t="s">
+        <v>11</v>
+      </c>
+      <c r="E154" t="s">
+        <v>12</v>
+      </c>
+      <c r="F154" t="s">
+        <v>18</v>
+      </c>
+      <c r="G154" t="s"/>
+      <c r="H154" t="s">
+        <v>186</v>
+      </c>
+      <c r="I154" t="s"/>
+      <c r="J154" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="155" spans="1:10">
+      <c r="A155" s="1" t="n">
+        <v>153</v>
+      </c>
+      <c r="B155" t="s">
+        <v>9</v>
+      </c>
+      <c r="C155" t="s">
+        <v>10</v>
+      </c>
+      <c r="D155" t="s">
+        <v>11</v>
+      </c>
+      <c r="E155" t="s">
+        <v>12</v>
+      </c>
+      <c r="F155" t="s">
+        <v>18</v>
+      </c>
+      <c r="G155" t="s"/>
+      <c r="H155" t="s">
+        <v>30</v>
+      </c>
+      <c r="I155" t="s"/>
+      <c r="J155" t="s">
+        <v>194</v>
+      </c>
+    </row>
+    <row r="156" spans="1:10">
+      <c r="A156" s="1" t="n">
+        <v>154</v>
+      </c>
+      <c r="B156" t="s">
+        <v>9</v>
+      </c>
+      <c r="C156" t="s">
+        <v>10</v>
+      </c>
+      <c r="D156" t="s">
+        <v>11</v>
+      </c>
+      <c r="E156" t="s">
+        <v>12</v>
+      </c>
+      <c r="F156" t="s">
+        <v>18</v>
+      </c>
+      <c r="G156" t="s"/>
+      <c r="H156" t="s">
+        <v>186</v>
+      </c>
+      <c r="I156" t="s"/>
+      <c r="J156" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="157" spans="1:10">
+      <c r="A157" s="1" t="n">
+        <v>155</v>
+      </c>
+      <c r="B157" t="s">
+        <v>9</v>
+      </c>
+      <c r="C157" t="s">
+        <v>10</v>
+      </c>
+      <c r="D157" t="s">
+        <v>11</v>
+      </c>
+      <c r="E157" t="s">
+        <v>12</v>
+      </c>
+      <c r="F157" t="s">
+        <v>18</v>
+      </c>
+      <c r="G157" t="s"/>
+      <c r="H157" t="s">
+        <v>30</v>
+      </c>
+      <c r="I157" t="s"/>
+      <c r="J157" t="s">
+        <v>196</v>
+      </c>
+    </row>
+    <row r="158" spans="1:10">
+      <c r="A158" s="1" t="n">
+        <v>156</v>
+      </c>
+      <c r="B158" t="s">
+        <v>9</v>
+      </c>
+      <c r="C158" t="s">
+        <v>10</v>
+      </c>
+      <c r="D158" t="s">
+        <v>11</v>
+      </c>
+      <c r="E158" t="s">
+        <v>12</v>
+      </c>
+      <c r="F158" t="s">
+        <v>18</v>
+      </c>
+      <c r="G158" t="s"/>
+      <c r="H158" t="s">
+        <v>186</v>
+      </c>
+      <c r="I158" t="s"/>
+      <c r="J158" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="159" spans="1:10">
+      <c r="A159" s="1" t="n">
+        <v>157</v>
+      </c>
+      <c r="B159" t="s">
+        <v>9</v>
+      </c>
+      <c r="C159" t="s">
+        <v>10</v>
+      </c>
+      <c r="D159" t="s">
+        <v>11</v>
+      </c>
+      <c r="E159" t="s">
+        <v>12</v>
+      </c>
+      <c r="F159" t="s">
+        <v>13</v>
+      </c>
+      <c r="G159" t="s">
+        <v>14</v>
+      </c>
+      <c r="H159" t="s">
+        <v>15</v>
+      </c>
+      <c r="I159" t="s">
+        <v>16</v>
+      </c>
+      <c r="J159" t="s">
+        <v>198</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins bottom="1" footer="0.5" header="0.5" left="0.75" right="0.75" top="1"/>
